--- a/Datos/Diccionario_ENMODO18.xlsx
+++ b/Datos/Diccionario_ENMODO18.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2C8F72056B201BC6D37BB1BB259521D216441182" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="13815" windowHeight="4050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base_hogares" sheetId="1" r:id="rId1"/>
@@ -13,17 +12,17 @@
     <sheet name="Base_personas" sheetId="3" r:id="rId3"/>
     <sheet name="Base_etapas" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mgXAGy6Ta7l1mWzFxUgLTNJW4XvwQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mgXAGy6Ta7l1mWzFxUgLTNJW4XvwQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="409">
   <si>
     <t>Campo</t>
   </si>
@@ -1250,11 +1249,14 @@
     <t>El cuestionario originalmente establecía que "Esta pregunta solo se realiza al finalizar el viaje o ultima etapa". No obstante, tuvo respuesta para todas las etapas de todos los viajes.
 Asimismo, se preguntaba por "más de 10 cuadras" pero las respuestas incluyeron al 10, por lo que se modificó la pregunta.</t>
   </si>
+  <si>
+    <t>No cursa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1482,7 +1484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1603,60 +1605,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1666,11 +1627,59 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1886,20 +1895,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.140625" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
@@ -1912,17 +1921,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2"/>
@@ -1983,13 +1992,13 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5">
@@ -1998,7 +2007,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2"/>
@@ -2023,16 +2032,16 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="5">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2088,7 +2097,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="24">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2125,13 +2134,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5">
@@ -2140,7 +2149,7 @@
       <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="43"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2163,16 +2172,16 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2195,16 +2204,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2227,16 +2236,16 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2259,16 +2268,16 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2291,16 +2300,16 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="5">
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2323,16 +2332,16 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="5">
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2355,16 +2364,16 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="5">
         <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2387,13 +2396,13 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="5">
@@ -2402,7 +2411,7 @@
       <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2425,16 +2434,16 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="57"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2457,16 +2466,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="57"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2489,16 +2498,16 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="57"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2520,17 +2529,17 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="57"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+    <row r="19" spans="1:26" ht="24">
+      <c r="A19" s="58"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2552,17 +2561,17 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="57"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+    <row r="20" spans="1:26" ht="24">
+      <c r="A20" s="58"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="5">
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2585,16 +2594,16 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="8">
         <v>22</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2651,13 +2660,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5">
@@ -2666,7 +2675,7 @@
       <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="54"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2689,16 +2698,16 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="55"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2721,18 +2730,18 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="54"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2755,16 +2764,16 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="5">
         <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="52"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2787,18 +2796,18 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="54"/>
+      <c r="F27" s="51"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2821,16 +2830,16 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="5">
         <v>88</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="55"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2853,13 +2862,13 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="5">
@@ -2868,7 +2877,7 @@
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="51"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2891,16 +2900,16 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="55"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2957,18 +2966,18 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="54"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -2991,16 +3000,16 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="5">
         <v>88</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="55"/>
+      <c r="F33" s="52"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3023,13 +3032,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="5">
@@ -3038,7 +3047,7 @@
       <c r="E34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="53" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="2"/>
@@ -3063,16 +3072,16 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -3095,16 +3104,16 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="57"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="56"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3127,16 +3136,16 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="57"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="5">
         <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3159,16 +3168,16 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="57"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="5">
         <v>5</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3191,16 +3200,16 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="57"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="5">
         <v>6</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3223,16 +3232,16 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="57"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="5">
         <v>7</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="56"/>
+      <c r="F40" s="54"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3255,16 +3264,16 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="58"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="5">
         <v>22</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="54"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3287,13 +3296,13 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="5">
@@ -3302,7 +3311,7 @@
       <c r="E42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="54"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3325,16 +3334,16 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="56"/>
+      <c r="F43" s="54"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3357,16 +3366,16 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3389,16 +3398,16 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3421,16 +3430,16 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
       <c r="D46" s="5">
         <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="56"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3453,13 +3462,13 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="5">
@@ -3468,7 +3477,7 @@
       <c r="E47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3491,16 +3500,16 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3523,16 +3532,16 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="58"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="5">
         <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3555,13 +3564,13 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="5">
@@ -3570,7 +3579,7 @@
       <c r="E50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3593,16 +3602,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3625,16 +3634,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3657,16 +3666,16 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="56"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3689,16 +3698,16 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="55"/>
+      <c r="A54" s="52"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="5">
         <v>5</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="55"/>
+      <c r="F54" s="52"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3721,13 +3730,13 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="5">
@@ -3736,7 +3745,7 @@
       <c r="E55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="51"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3759,16 +3768,16 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="55"/>
+      <c r="F56" s="52"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3791,7 +3800,7 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="59" t="s">
+      <c r="A57" s="45" t="s">
         <v>85</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -3802,7 +3811,7 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="60"/>
+      <c r="F57" s="46"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -3825,13 +3834,13 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="5">
@@ -3840,7 +3849,7 @@
       <c r="E58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="42" t="s">
+      <c r="F58" s="56" t="s">
         <v>89</v>
       </c>
       <c r="G58" s="2"/>
@@ -3865,16 +3874,16 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="56"/>
+      <c r="F59" s="54"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3897,16 +3906,16 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3929,16 +3938,16 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="56"/>
+      <c r="F61" s="54"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3961,16 +3970,16 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="5">
         <v>22</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="54"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -3993,13 +4002,13 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="5">
@@ -4008,7 +4017,7 @@
       <c r="E63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="54"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -4031,16 +4040,16 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="5">
         <v>2</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="56"/>
+      <c r="F64" s="54"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4063,16 +4072,16 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="5">
         <v>22</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4095,13 +4104,13 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="5">
@@ -4110,7 +4119,7 @@
       <c r="E66" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="54"/>
+      <c r="F66" s="51"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4133,16 +4142,16 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="56"/>
+      <c r="F67" s="54"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -30296,13 +30305,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F54"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="F58:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="A32:A33"/>
@@ -30312,50 +30358,13 @@
     <mergeCell ref="B34:B41"/>
     <mergeCell ref="C34:C41"/>
     <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="F58:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F54"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -30363,7 +30372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -30371,7 +30380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
@@ -30419,7 +30428,7 @@
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="24">
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
@@ -30455,7 +30464,7 @@
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="24">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
@@ -30491,7 +30500,7 @@
       <c r="Y3" s="22"/>
       <c r="Z3" s="22"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="24">
       <c r="A4" s="3" t="s">
         <v>100</v>
       </c>
@@ -30528,13 +30537,13 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
@@ -30543,7 +30552,7 @@
       <c r="E5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="54"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -30566,16 +30575,16 @@
       <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -30598,16 +30607,16 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -30630,16 +30639,16 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="5">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -30662,16 +30671,16 @@
       <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -30694,16 +30703,16 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="5">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -30726,16 +30735,16 @@
       <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -30758,16 +30767,16 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -30790,16 +30799,16 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -30822,16 +30831,16 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -30854,16 +30863,16 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -30886,16 +30895,16 @@
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -30918,16 +30927,16 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -30950,16 +30959,16 @@
       <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -30982,16 +30991,16 @@
       <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -31014,16 +31023,16 @@
       <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="5">
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -31046,16 +31055,16 @@
       <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="5">
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -31078,16 +31087,16 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="5">
         <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="55"/>
+      <c r="F22" s="52"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -31110,13 +31119,13 @@
       <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5">
@@ -31125,7 +31134,7 @@
       <c r="E23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="54"/>
+      <c r="F23" s="51"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -31148,16 +31157,16 @@
       <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -31180,16 +31189,16 @@
       <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -31212,16 +31221,16 @@
       <c r="Z25" s="22"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="56"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="5">
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -31244,16 +31253,16 @@
       <c r="Z26" s="22"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="5">
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="56"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -31276,16 +31285,16 @@
       <c r="Z27" s="22"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="5">
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="56"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -31308,16 +31317,16 @@
       <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="5">
         <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="56"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -31340,16 +31349,16 @@
       <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="5">
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -31372,16 +31381,16 @@
       <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="5">
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -31404,16 +31413,16 @@
       <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="5">
         <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
@@ -31436,16 +31445,16 @@
       <c r="Z32" s="22"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="5">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -31468,16 +31477,16 @@
       <c r="Z33" s="22"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="5">
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -31500,16 +31509,16 @@
       <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="5">
         <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
@@ -31532,16 +31541,16 @@
       <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="5">
         <v>14</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="56"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
@@ -31564,16 +31573,16 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="5">
         <v>15</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -31596,16 +31605,16 @@
       <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="5">
         <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -31628,16 +31637,16 @@
       <c r="Z38" s="22"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="5">
         <v>17</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="56"/>
+      <c r="F39" s="54"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -31660,16 +31669,16 @@
       <c r="Z39" s="22"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
       <c r="D40" s="5">
         <v>22</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="55"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -31692,13 +31701,13 @@
       <c r="Z40" s="22"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -31707,7 +31716,7 @@
       <c r="E41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="22"/>
@@ -31732,16 +31741,16 @@
       <c r="Z41" s="22"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
       <c r="D42" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="55"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -31764,13 +31773,13 @@
       <c r="Z42" s="22"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="54" t="s">
+      <c r="A43" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="54" t="s">
+      <c r="C43" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="5">
@@ -31779,7 +31788,7 @@
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="22"/>
@@ -31804,16 +31813,16 @@
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="54"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
@@ -31836,16 +31845,16 @@
       <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="54"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
@@ -31868,16 +31877,16 @@
       <c r="Z45" s="22"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="5">
         <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="56"/>
+      <c r="F46" s="54"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -31900,16 +31909,16 @@
       <c r="Z46" s="22"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="5">
         <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="56"/>
+      <c r="F47" s="54"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -31932,16 +31941,16 @@
       <c r="Z47" s="22"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="5">
         <v>7</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="56"/>
+      <c r="F48" s="54"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -31964,16 +31973,16 @@
       <c r="Z48" s="22"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="5">
         <v>8</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="56"/>
+      <c r="F49" s="54"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
@@ -31996,16 +32005,16 @@
       <c r="Z49" s="22"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="5">
         <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="56"/>
+      <c r="F50" s="54"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
@@ -32028,16 +32037,16 @@
       <c r="Z50" s="22"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="5">
         <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="56"/>
+      <c r="F51" s="54"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
@@ -32060,16 +32069,16 @@
       <c r="Z51" s="22"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="5">
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="56"/>
+      <c r="F52" s="54"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
@@ -32092,16 +32101,16 @@
       <c r="Z52" s="22"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="5">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="56"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -32124,16 +32133,16 @@
       <c r="Z53" s="22"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="5">
         <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="56"/>
+      <c r="F54" s="54"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -32156,16 +32165,16 @@
       <c r="Z54" s="22"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="5">
         <v>14</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="56"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -32188,16 +32197,16 @@
       <c r="Z55" s="22"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="5">
         <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="56"/>
+      <c r="F56" s="54"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
@@ -32220,16 +32229,16 @@
       <c r="Z56" s="22"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="5">
         <v>16</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="56"/>
+      <c r="F57" s="54"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -32252,16 +32261,16 @@
       <c r="Z57" s="22"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="5">
         <v>17</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="56"/>
+      <c r="F58" s="54"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -32284,16 +32293,16 @@
       <c r="Z58" s="22"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="5">
         <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="55"/>
+      <c r="F59" s="52"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -32316,18 +32325,18 @@
       <c r="Z59" s="22"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="23"/>
-      <c r="F60" s="54"/>
+      <c r="F60" s="51"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
@@ -32350,16 +32359,16 @@
       <c r="Z60" s="22"/>
     </row>
     <row r="61" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="8">
         <v>88</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="55"/>
+      <c r="F61" s="52"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
@@ -32382,13 +32391,13 @@
       <c r="Z61" s="22"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="14">
@@ -32397,7 +32406,7 @@
       <c r="E62" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F62" s="43"/>
+      <c r="F62" s="53"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -32420,16 +32429,16 @@
       <c r="Z62" s="22"/>
     </row>
     <row r="63" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="5">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F63" s="55"/>
+      <c r="F63" s="52"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -32452,13 +32461,13 @@
       <c r="Z63" s="22"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="54" t="s">
+      <c r="B64" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="5">
@@ -32467,7 +32476,7 @@
       <c r="E64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="F64" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="22"/>
@@ -32492,16 +32501,16 @@
       <c r="Z64" s="22"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="55"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="5">
         <v>6</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="52"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -32524,13 +32533,13 @@
       <c r="Z65" s="22"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="5">
@@ -32539,7 +32548,7 @@
       <c r="E66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="F66" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="22"/>
@@ -32564,16 +32573,16 @@
       <c r="Z66" s="22"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="55"/>
+      <c r="A67" s="52"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="52"/>
       <c r="D67" s="5">
         <v>6</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="55"/>
+      <c r="F67" s="52"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -32595,7 +32604,7 @@
       <c r="Y67" s="22"/>
       <c r="Z67" s="22"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="24">
       <c r="A68" s="3" t="s">
         <v>141</v>
       </c>
@@ -32631,7 +32640,7 @@
       <c r="Y68" s="22"/>
       <c r="Z68" s="22"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="24">
       <c r="A69" s="3" t="s">
         <v>143</v>
       </c>
@@ -32667,7 +32676,7 @@
       <c r="Y69" s="22"/>
       <c r="Z69" s="22"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="24">
       <c r="A70" s="3" t="s">
         <v>145</v>
       </c>
@@ -32703,7 +32712,7 @@
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="24">
       <c r="A71" s="3" t="s">
         <v>147</v>
       </c>
@@ -32739,7 +32748,7 @@
       <c r="Y71" s="22"/>
       <c r="Z71" s="22"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="24">
       <c r="A72" s="3" t="s">
         <v>149</v>
       </c>
@@ -32777,7 +32786,7 @@
       <c r="Y72" s="22"/>
       <c r="Z72" s="22"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="24">
       <c r="A73" s="3" t="s">
         <v>152</v>
       </c>
@@ -32815,7 +32824,7 @@
       <c r="Y73" s="22"/>
       <c r="Z73" s="22"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="24">
       <c r="A74" s="3" t="s">
         <v>154</v>
       </c>
@@ -32852,13 +32861,13 @@
       <c r="Z74" s="22"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="54" t="s">
+      <c r="B75" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="C75" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="5">
@@ -32867,7 +32876,7 @@
       <c r="E75" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="47" t="s">
+      <c r="F75" s="62" t="s">
         <v>159</v>
       </c>
       <c r="G75" s="22"/>
@@ -32892,16 +32901,16 @@
       <c r="Z75" s="22"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="56"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="5">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="54"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -32924,16 +32933,16 @@
       <c r="Z76" s="22"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="56"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="5">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="56"/>
+      <c r="F77" s="54"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -32956,16 +32965,16 @@
       <c r="Z77" s="22"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="56"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="5">
         <v>4</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="56"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -32988,16 +32997,16 @@
       <c r="Z78" s="22"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="56"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="5">
         <v>5</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="56"/>
+      <c r="F79" s="54"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -33020,16 +33029,16 @@
       <c r="Z79" s="22"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="56"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="5">
         <v>6</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="56"/>
+      <c r="F80" s="54"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -33051,17 +33060,17 @@
       <c r="Y80" s="22"/>
       <c r="Z80" s="22"/>
     </row>
-    <row r="81" spans="1:26">
-      <c r="A81" s="56"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
+    <row r="81" spans="1:26" ht="24">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="5">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="56"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -33084,16 +33093,16 @@
       <c r="Z81" s="22"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="56"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="5">
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F82" s="56"/>
+      <c r="F82" s="54"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -33115,17 +33124,17 @@
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
     </row>
-    <row r="83" spans="1:26">
-      <c r="A83" s="55"/>
-      <c r="B83" s="55"/>
-      <c r="C83" s="55"/>
+    <row r="83" spans="1:26" ht="24">
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
       <c r="D83" s="5">
         <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="55"/>
+      <c r="F83" s="52"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -33147,7 +33156,7 @@
       <c r="Y83" s="22"/>
       <c r="Z83" s="22"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="36">
       <c r="A84" s="3" t="s">
         <v>168</v>
       </c>
@@ -33183,7 +33192,7 @@
       <c r="Y84" s="22"/>
       <c r="Z84" s="22"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="36">
       <c r="A85" s="3" t="s">
         <v>170</v>
       </c>
@@ -33219,7 +33228,7 @@
       <c r="Y85" s="22"/>
       <c r="Z85" s="22"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="24">
       <c r="A86" s="3" t="s">
         <v>172</v>
       </c>
@@ -33256,13 +33265,13 @@
       <c r="Z86" s="22"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B87" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C87" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -33271,7 +33280,7 @@
       <c r="E87" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F87" s="54" t="s">
+      <c r="F87" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="22"/>
@@ -33296,16 +33305,16 @@
       <c r="Z87" s="22"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F88" s="56"/>
+      <c r="F88" s="54"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -33328,16 +33337,16 @@
       <c r="Z88" s="22"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="55"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="55"/>
+      <c r="A89" s="52"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="52"/>
       <c r="D89" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="55"/>
+      <c r="F89" s="52"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -33360,13 +33369,13 @@
       <c r="Z89" s="22"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="54" t="s">
+      <c r="A90" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="54" t="s">
+      <c r="B90" s="51" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="54" t="s">
+      <c r="C90" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="5">
@@ -33375,7 +33384,7 @@
       <c r="E90" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="F90" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="22"/>
@@ -33400,16 +33409,16 @@
       <c r="Z90" s="22"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="56"/>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="5">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="56"/>
+      <c r="F91" s="54"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -33432,16 +33441,16 @@
       <c r="Z91" s="22"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="55"/>
-      <c r="B92" s="55"/>
-      <c r="C92" s="55"/>
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
       <c r="D92" s="5">
         <v>88</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F92" s="55"/>
+      <c r="F92" s="52"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -33464,20 +33473,20 @@
       <c r="Z92" s="22"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="54" t="s">
+      <c r="A93" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="B93" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C93" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="54" t="s">
+      <c r="F93" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G93" s="22"/>
@@ -33502,14 +33511,14 @@
       <c r="Z93" s="22"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="55"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="55"/>
+      <c r="A94" s="52"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="52"/>
       <c r="D94" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="55"/>
+      <c r="F94" s="52"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -33532,13 +33541,13 @@
       <c r="Z94" s="22"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="54" t="s">
+      <c r="A95" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="54" t="s">
+      <c r="B95" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="54" t="s">
+      <c r="C95" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="5">
@@ -33547,7 +33556,7 @@
       <c r="E95" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F95" s="54" t="s">
+      <c r="F95" s="51" t="s">
         <v>8</v>
       </c>
       <c r="G95" s="22"/>
@@ -33572,16 +33581,16 @@
       <c r="Z95" s="22"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="55"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="55"/>
+      <c r="A96" s="52"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="52"/>
       <c r="D96" s="5">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F96" s="55"/>
+      <c r="F96" s="52"/>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -33603,7 +33612,7 @@
       <c r="Y96" s="22"/>
       <c r="Z96" s="22"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="24">
       <c r="A97" s="13" t="s">
         <v>190</v>
       </c>
@@ -58952,14 +58961,29 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="F75:F83"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B43:B59"/>
+    <mergeCell ref="C43:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="F5:F22"/>
+    <mergeCell ref="B23:B40"/>
+    <mergeCell ref="C23:C40"/>
+    <mergeCell ref="F23:F40"/>
+    <mergeCell ref="A23:A40"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="C66:C67"/>
@@ -58973,27 +58997,14 @@
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="F62:F63"/>
     <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A5:A22"/>
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="F5:F22"/>
-    <mergeCell ref="B23:B40"/>
-    <mergeCell ref="C23:C40"/>
-    <mergeCell ref="F23:F40"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B43:B59"/>
-    <mergeCell ref="C43:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="F87:F89"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="A75:A83"/>
+    <mergeCell ref="B75:B83"/>
+    <mergeCell ref="C75:C83"/>
+    <mergeCell ref="F75:F83"/>
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="C95:C96"/>
@@ -59002,8 +59013,6 @@
     <mergeCell ref="C90:C92"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A87:A89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -59011,15 +59020,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27:F36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
@@ -59032,17 +59043,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>4</v>
       </c>
     </row>
@@ -59121,13 +59132,13 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5">
@@ -59136,28 +59147,28 @@
       <c r="E7" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5">
@@ -59166,100 +59177,100 @@
       <c r="E9" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="5">
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="5">
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="5">
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="5">
         <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5">
@@ -59268,90 +59279,90 @@
       <c r="E17" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="5">
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="5">
         <v>7</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="55"/>
+      <c r="F23" s="52"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="51" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="5">
@@ -59360,1255 +59371,1259 @@
       <c r="E24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="51"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="52"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="54"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="5">
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="70"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="5">
         <v>2</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F27" s="56"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="56"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="5">
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="70"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="5">
         <v>3</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F28" s="56"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="56"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="5">
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="70"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="5">
         <v>4</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F29" s="56"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="5">
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="5">
         <v>5</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="56"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="5">
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="70"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="5">
         <v>6</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="56"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="5">
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="5">
         <v>7</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F32" s="56"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="5">
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="70"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="5">
         <v>8</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F33" s="56"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="5">
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="5">
         <v>9</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="56"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="5">
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="5">
         <v>22</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F35" s="55"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="54" t="s">
+      <c r="F36" s="52"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="B36" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C37" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F36" s="54"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="5">
+      <c r="F37" s="51"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="5">
         <v>2</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F37" s="56"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="5">
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="5">
         <v>3</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="56"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="5">
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="52"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="5">
         <v>22</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="55"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="54" t="s">
+      <c r="F40" s="52"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B41" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C41" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="54"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="5">
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="5">
         <v>2</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="56"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="5">
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="5">
         <v>3</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F42" s="56"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="5">
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="5">
         <v>4</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F43" s="56"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="5">
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="5">
         <v>5</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F44" s="56"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="5">
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="5">
         <v>6</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F45" s="56"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="5">
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="5">
         <v>7</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F46" s="56"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="5">
+      <c r="F47" s="54"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="52"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="5">
         <v>22</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="55"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="54" t="s">
+      <c r="F48" s="52"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B49" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C49" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="5">
         <v>0</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F48" s="61" t="s">
+      <c r="F49" s="63" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="5">
+    <row r="50" spans="1:6">
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="5">
         <v>1</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F49" s="62"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="5">
+      <c r="F50" s="64"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="5">
         <v>2</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F50" s="63"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="54" t="s">
+      <c r="F51" s="65"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="B51" s="54" t="s">
+      <c r="B52" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="C51" s="54" t="s">
+      <c r="C52" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <v>1</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F51" s="54"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="5">
+      <c r="F52" s="51"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="5">
         <v>2</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F52" s="56"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="5">
+      <c r="F53" s="54"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="5">
         <v>3</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F53" s="56"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="56"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="5">
+      <c r="F54" s="54"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="5">
         <v>4</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F54" s="56"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="5">
+      <c r="F55" s="54"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="5">
         <v>5</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F55" s="56"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="5">
+      <c r="F56" s="54"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="5">
         <v>6</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F56" s="56"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="5">
+      <c r="F57" s="54"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="5">
         <v>7</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F57" s="56"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="5">
+      <c r="F58" s="54"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="5">
         <v>8</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F58" s="56"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="5">
+      <c r="F59" s="54"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="5">
         <v>9</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F59" s="56"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="5">
+      <c r="F60" s="54"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="52"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="5">
         <v>10</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F60" s="55"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="54" t="s">
+      <c r="F61" s="52"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="B61" s="54" t="s">
+      <c r="B62" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="54" t="s">
+      <c r="C62" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D62" s="5">
         <v>1</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F61" s="54"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="5">
+      <c r="F62" s="51"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="5">
         <v>2</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F62" s="56"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="5">
+      <c r="F63" s="54"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="5">
         <v>3</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F63" s="56"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="56"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="5">
+      <c r="F64" s="54"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="5">
         <v>4</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F64" s="56"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="56"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="5">
+      <c r="F65" s="54"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="5">
         <v>5</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F65" s="56"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="5">
+      <c r="F66" s="54"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="5">
         <v>6</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F66" s="56"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="56"/>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="5">
+      <c r="F67" s="54"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="5">
         <v>7</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F67" s="56"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="5">
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="52"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="5">
         <v>22</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F68" s="55"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="3" t="s">
+      <c r="F69" s="52"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="54" t="s">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="B70" s="54" t="s">
+      <c r="B71" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C70" s="54" t="s">
+      <c r="C71" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="5">
         <v>1</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F70" s="54"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="5">
+      <c r="F71" s="51"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="5">
         <v>2</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E72" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F71" s="56"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="56"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="5">
+      <c r="F72" s="54"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="5">
         <v>3</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="5">
+      <c r="F73" s="54"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="5">
         <v>4</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F73" s="56"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="5">
+      <c r="F74" s="54"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="5">
         <v>5</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F74" s="56"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="5">
+      <c r="F75" s="54"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="5">
         <v>6</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F75" s="56"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="56"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="5">
+      <c r="F76" s="54"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="54"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="5">
         <v>7</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F76" s="56"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="55"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="5">
+      <c r="F77" s="54"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="52"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="5">
         <v>22</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F77" s="55"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="3" t="s">
+      <c r="F78" s="52"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="54" t="s">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B80" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C80" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <v>1</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F79" s="54"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="56"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="5">
+      <c r="F80" s="51"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="5">
         <v>2</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F80" s="56"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="56"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="5">
+      <c r="F81" s="54"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="5">
         <v>3</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F81" s="56"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="55"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="5">
+      <c r="F82" s="54"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="52"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="5">
         <v>4</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F82" s="55"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="54" t="s">
+      <c r="F83" s="52"/>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="B83" s="54" t="s">
+      <c r="B84" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C84" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <v>1</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E84" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F83" s="54"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="56"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="5">
+      <c r="F84" s="51"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="5">
         <v>2</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F84" s="56"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="56"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="5">
+      <c r="F85" s="54"/>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="5">
         <v>3</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F85" s="56"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="55"/>
-      <c r="B86" s="55"/>
-      <c r="C86" s="55"/>
-      <c r="D86" s="5">
+      <c r="F86" s="54"/>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="52"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="5">
         <v>4</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F86" s="55"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="54" t="s">
+      <c r="F87" s="52"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="51" t="s">
         <v>297</v>
       </c>
-      <c r="B87" s="54" t="s">
+      <c r="B88" s="51" t="s">
         <v>298</v>
       </c>
-      <c r="C87" s="54" t="s">
+      <c r="C88" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D88" s="5">
         <v>1</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E88" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F87" s="54"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="5">
+      <c r="F88" s="51"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="5">
         <v>2</v>
       </c>
-      <c r="E88" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F88" s="56"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="56"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="5">
+      <c r="F89" s="54"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="54"/>
+      <c r="B90" s="54"/>
+      <c r="C90" s="54"/>
+      <c r="D90" s="5">
         <v>3</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F89" s="56"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="56"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="5">
+      <c r="F90" s="54"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="54"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="5">
         <v>4</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F90" s="56"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="55"/>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="5">
+      <c r="F91" s="54"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="52"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="5">
         <v>22</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="55"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="3" t="s">
+      <c r="F92" s="52"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="54" t="s">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="B93" s="54" t="s">
+      <c r="B94" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="C93" s="54" t="s">
+      <c r="C94" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D94" s="5">
         <v>1</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F93" s="54"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="56"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="5">
+      <c r="F94" s="51"/>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="54"/>
+      <c r="B95" s="54"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="5">
         <v>2</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F94" s="56"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="56"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="5">
+      <c r="F95" s="54"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="54"/>
+      <c r="B96" s="54"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="5">
         <v>3</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F95" s="56"/>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="56"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="56"/>
-      <c r="D96" s="5">
+      <c r="F96" s="54"/>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="54"/>
+      <c r="B97" s="54"/>
+      <c r="C97" s="54"/>
+      <c r="D97" s="5">
         <v>4</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F96" s="56"/>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="55"/>
-      <c r="B97" s="55"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="5">
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="52"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="5">
         <v>5</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E98" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F97" s="55"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="54" t="s">
+      <c r="F98" s="52"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="51" t="s">
         <v>312</v>
       </c>
-      <c r="B98" s="54" t="s">
+      <c r="B99" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C98" s="54" t="s">
+      <c r="C99" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D99" s="5">
         <v>1</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F98" s="54"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="56"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="5">
+      <c r="F99" s="51"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="54"/>
+      <c r="B100" s="54"/>
+      <c r="C100" s="54"/>
+      <c r="D100" s="5">
         <v>2</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F99" s="56"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="56"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="5">
+      <c r="F100" s="54"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="54"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="5">
         <v>3</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F100" s="56"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="56"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="5">
+      <c r="F101" s="54"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="54"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="54"/>
+      <c r="D102" s="5">
         <v>4</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F101" s="56"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="56"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="5">
+      <c r="F102" s="54"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="5">
         <v>5</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F102" s="56"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="55"/>
-      <c r="B103" s="55"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="5">
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="52"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="5">
         <v>22</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F103" s="55"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="54" t="s">
+      <c r="F104" s="52"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="B104" s="54" t="s">
+      <c r="B105" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="C104" s="54" t="s">
+      <c r="C105" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="5">
+      <c r="D105" s="5">
         <v>1</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F104" s="54" t="s">
+      <c r="F105" s="51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="55"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="5">
+    <row r="106" spans="1:6">
+      <c r="A106" s="52"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="5">
         <v>2</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F105" s="55"/>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" s="54" t="s">
+      <c r="F106" s="52"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="B106" s="54" t="s">
+      <c r="B107" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="C106" s="54" t="s">
+      <c r="C107" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D107" s="5">
         <v>1</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F106" s="54"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="5">
+      <c r="F107" s="51"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="52"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="5">
         <v>2</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F107" s="55"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="54" t="s">
+      <c r="F108" s="52"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="B108" s="54" t="s">
+      <c r="B109" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="C108" s="54" t="s">
+      <c r="C109" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D109" s="5">
         <v>1</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E109" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F108" s="54"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="56"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="5">
+      <c r="F109" s="51"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="54"/>
+      <c r="B110" s="54"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="5">
         <v>2</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F109" s="56"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="56"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="5">
+      <c r="F110" s="54"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="5">
         <v>3</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E111" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F110" s="56"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="56"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="5">
+      <c r="F111" s="54"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="54"/>
+      <c r="B112" s="54"/>
+      <c r="C112" s="54"/>
+      <c r="D112" s="5">
         <v>4</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F111" s="56"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="56"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="56"/>
-      <c r="D112" s="5">
+      <c r="F112" s="54"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="54"/>
+      <c r="B113" s="54"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="5">
         <v>5</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F112" s="56"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="56"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="56"/>
-      <c r="D113" s="5">
+      <c r="F113" s="54"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="54"/>
+      <c r="B114" s="54"/>
+      <c r="C114" s="54"/>
+      <c r="D114" s="5">
         <v>6</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F113" s="56"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="56"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="56"/>
-      <c r="D114" s="5">
+      <c r="F114" s="54"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="54"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="54"/>
+      <c r="D115" s="5">
         <v>7</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F114" s="56"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="56"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="56"/>
-      <c r="D115" s="5">
+      <c r="F115" s="54"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="54"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="5">
         <v>8</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F115" s="56"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="56"/>
-      <c r="B116" s="56"/>
-      <c r="C116" s="56"/>
-      <c r="D116" s="5">
+      <c r="F116" s="54"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="54"/>
+      <c r="B117" s="54"/>
+      <c r="C117" s="54"/>
+      <c r="D117" s="5">
         <v>9</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F116" s="56"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="56"/>
-      <c r="B117" s="56"/>
-      <c r="C117" s="56"/>
-      <c r="D117" s="5">
+      <c r="F117" s="54"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="54"/>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="5">
         <v>10</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F117" s="56"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="56"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="56"/>
-      <c r="D118" s="5">
+      <c r="F118" s="54"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="5">
         <v>11</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F118" s="56"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="55"/>
-      <c r="B119" s="55"/>
-      <c r="C119" s="55"/>
-      <c r="D119" s="5">
+      <c r="F119" s="54"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="52"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="5">
         <v>22</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F119" s="55"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="27"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
+      <c r="F120" s="52"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="27"/>
@@ -67650,32 +67665,60 @@
       <c r="E1000" s="27"/>
       <c r="F1000" s="27"/>
     </row>
+    <row r="1001" spans="1:6">
+      <c r="A1001" s="27"/>
+      <c r="B1001" s="27"/>
+      <c r="C1001" s="27"/>
+      <c r="D1001" s="27"/>
+      <c r="E1001" s="27"/>
+      <c r="F1001" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="B61:B68"/>
-    <mergeCell ref="C61:C68"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="C51:C60"/>
-    <mergeCell ref="A61:A68"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="A26:A35"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="C26:C35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="F71:F78"/>
+    <mergeCell ref="F109:F120"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="F41:F48"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F61"/>
+    <mergeCell ref="F80:F83"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="F99:F104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="B71:B78"/>
+    <mergeCell ref="C71:C78"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="C80:C83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="A94:A98"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="C94:C98"/>
+    <mergeCell ref="A99:A104"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="C99:C104"/>
+    <mergeCell ref="B109:B120"/>
+    <mergeCell ref="C109:C120"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="A109:A120"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -67684,50 +67727,30 @@
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B108:B119"/>
-    <mergeCell ref="C108:C119"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A108:A119"/>
-    <mergeCell ref="A93:A97"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="F87:F91"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A70:A77"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="F61:F68"/>
-    <mergeCell ref="F70:F77"/>
-    <mergeCell ref="F108:F119"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F35"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="F40:F47"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="F51:F60"/>
-    <mergeCell ref="F79:F82"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="F98:F103"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="A41:A48"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C52:C61"/>
+    <mergeCell ref="A62:A69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -67735,7 +67758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -67743,7 +67766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
@@ -67757,17 +67780,17 @@
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -67836,13 +67859,13 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="31">
@@ -67851,247 +67874,247 @@
       <c r="E6" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="31">
         <v>3</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="31">
         <v>4</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="56"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="31">
         <v>5</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="31">
         <v>6</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="56"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="31">
         <v>7</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="F12" s="56"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="62"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="31">
         <v>8</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="F13" s="56"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="31">
         <v>9</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="56"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="31">
         <v>10</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="56"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="31">
         <v>11</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="56"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="31">
         <v>12</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F17" s="56"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="56"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="31">
         <v>13</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="62"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="31">
         <v>14</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F19" s="56"/>
+      <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="64"/>
       <c r="D20" s="31">
         <v>15</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="56"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="31">
         <v>16</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="56"/>
+      <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="31">
         <v>17</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F22" s="56"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="31">
         <v>18</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="56"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="31">
         <v>19</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="56"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="31">
         <v>20</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="56"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="63"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="31">
         <v>22</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="52"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34" t="s">
@@ -68122,13 +68145,13 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="69" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="51" t="s">
         <v>366</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="35">
@@ -68137,138 +68160,138 @@
       <c r="E29" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="51" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="56"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="64"/>
       <c r="D30" s="31">
         <v>2</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="56"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="64"/>
       <c r="D31" s="31">
         <v>3</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F31" s="56"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="56"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="64"/>
       <c r="D32" s="31">
         <v>4</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="56"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="64"/>
       <c r="D33" s="31">
         <v>5</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="56"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="31">
         <v>6</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F34" s="56"/>
+      <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="31">
         <v>7</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F35" s="56"/>
+      <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="31">
         <v>8</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="56"/>
+      <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="31">
         <v>9</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F37" s="56"/>
+      <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="64"/>
       <c r="D38" s="31">
         <v>10</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F38" s="56"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="63"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="31">
         <v>22</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F39" s="55"/>
+      <c r="F39" s="52"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="35">
@@ -68277,79 +68300,79 @@
       <c r="E40" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="51"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="31">
         <v>2</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="F41" s="56"/>
+      <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="31">
         <v>3</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="56"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="31">
         <v>4</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="56"/>
+      <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="64"/>
       <c r="D44" s="31">
         <v>5</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="56"/>
+      <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="64"/>
       <c r="D45" s="31">
         <v>6</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="56"/>
+      <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="63"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="31">
         <v>22</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="55"/>
+      <c r="F46" s="52"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="37" t="s">
@@ -68368,91 +68391,91 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="67" t="s">
         <v>390</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="48"/>
+      <c r="F48" s="68"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="56"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="65"/>
       <c r="D49" s="39">
         <v>88</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="F49" s="55"/>
+      <c r="F49" s="52"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="67" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="53" t="s">
         <v>394</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="48"/>
+      <c r="F50" s="68"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="63"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="65"/>
       <c r="D51" s="31">
         <v>88</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="F51" s="55"/>
+      <c r="F51" s="52"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="14"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="48"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="68"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="5">
         <v>88</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F53" s="55"/>
+      <c r="F53" s="52"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5">
@@ -68461,166 +68484,166 @@
       <c r="E54" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="54" t="s">
+      <c r="F54" s="51" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="62"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F55" s="56"/>
+      <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="56"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="62"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="64"/>
       <c r="D56" s="5">
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F56" s="56"/>
+      <c r="F56" s="54"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="62"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="64"/>
       <c r="D57" s="5">
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F57" s="56"/>
+      <c r="F57" s="54"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="56"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="62"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="64"/>
       <c r="D58" s="5">
         <v>5</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F58" s="56"/>
+      <c r="F58" s="54"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="62"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="64"/>
       <c r="D59" s="5">
         <v>6</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F59" s="56"/>
+      <c r="F59" s="54"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="56"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="62"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="64"/>
       <c r="D60" s="5">
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F60" s="56"/>
+      <c r="F60" s="54"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="62"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="5">
         <v>8</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="56"/>
+      <c r="F61" s="54"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="5">
         <v>9</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F62" s="56"/>
+      <c r="F62" s="54"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="56"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="62"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="5">
         <v>10</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F63" s="56"/>
+      <c r="F63" s="54"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="63"/>
+      <c r="A64" s="52"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="5">
         <v>22</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F64" s="55"/>
+      <c r="F64" s="52"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="51" t="s">
         <v>401</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="51" t="s">
         <v>402</v>
       </c>
-      <c r="C65" s="49" t="s">
+      <c r="C65" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="48" t="s">
+      <c r="F65" s="68" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="5">
         <v>88</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="F66" s="55"/>
+      <c r="F66" s="52"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="53" t="s">
         <v>405</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="49" t="s">
+      <c r="C67" s="66" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="35">
@@ -68629,129 +68652,129 @@
       <c r="E67" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="F67" s="51" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="62"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="31">
         <v>2</v>
       </c>
       <c r="E68" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F68" s="56"/>
+      <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="56"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="62"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="31">
         <v>3</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F69" s="56"/>
+      <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="31">
         <v>4</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="56"/>
+      <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="56"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="62"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="31">
         <v>5</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F71" s="56"/>
+      <c r="F71" s="54"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="56"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="62"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="64"/>
       <c r="D72" s="31">
         <v>6</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F72" s="56"/>
+      <c r="F72" s="54"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="62"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="64"/>
       <c r="D73" s="31">
         <v>7</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F73" s="56"/>
+      <c r="F73" s="54"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="62"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="64"/>
       <c r="D74" s="31">
         <v>8</v>
       </c>
       <c r="E74" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F74" s="56"/>
+      <c r="F74" s="54"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="62"/>
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="64"/>
       <c r="D75" s="31">
         <v>9</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F75" s="56"/>
+      <c r="F75" s="54"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="56"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="62"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="64"/>
       <c r="D76" s="31">
         <v>10</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F76" s="56"/>
+      <c r="F76" s="54"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="55"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="63"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="31">
         <v>22</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F77" s="55"/>
+      <c r="F77" s="52"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19"/>
@@ -76171,21 +76194,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F40:F46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F64"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="F67:F77"/>
     <mergeCell ref="A6:A26"/>
@@ -76202,11 +76215,21 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F40:F46"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Datos/Diccionario_ENMODO18.xlsx
+++ b/Datos/Diccionario_ENMODO18.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="412">
   <si>
     <t>Campo</t>
   </si>
@@ -1252,6 +1252,15 @@
   <si>
     <t>No cursa</t>
   </si>
+  <si>
+    <t>Si trabajan</t>
+  </si>
+  <si>
+    <t>no cursa</t>
+  </si>
+  <si>
+    <t>Si tiene empelo</t>
+  </si>
 </sst>
 </file>
 
@@ -1484,7 +1493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1633,16 +1642,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1650,10 +1652,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1663,11 +1679,11 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1675,11 +1691,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1992,13 +2008,13 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5">
@@ -2007,7 +2023,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2"/>
@@ -2032,16 +2048,16 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="5">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="59"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2134,13 +2150,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5">
@@ -2149,7 +2165,7 @@
       <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="53"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2172,16 +2188,16 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2204,16 +2220,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2236,16 +2252,16 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2268,16 +2284,16 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2300,16 +2316,16 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5">
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2332,16 +2348,16 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="5">
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2364,16 +2380,16 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="5">
         <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2396,13 +2412,13 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="5">
@@ -2411,7 +2427,7 @@
       <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2434,16 +2450,16 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="58"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2466,16 +2482,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="58"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2498,16 +2514,16 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="58"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2530,16 +2546,16 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="24">
-      <c r="A19" s="58"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2562,16 +2578,16 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="24">
-      <c r="A20" s="58"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="5">
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2594,16 +2610,16 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="8">
         <v>22</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2660,13 +2676,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5">
@@ -2675,7 +2691,7 @@
       <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2698,16 +2714,16 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="59"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="59"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2730,18 +2746,18 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="51"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2764,16 +2780,16 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="58"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="5">
         <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="59"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2796,18 +2812,18 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="51"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2830,16 +2846,16 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
       <c r="D28" s="5">
         <v>88</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2862,13 +2878,13 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="5">
@@ -2877,7 +2893,7 @@
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="51"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2900,16 +2916,16 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2966,18 +2982,18 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="51"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3000,16 +3016,16 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="5">
         <v>88</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3032,13 +3048,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="5">
@@ -3047,7 +3063,7 @@
       <c r="E34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="60" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="2"/>
@@ -3072,16 +3088,16 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -3104,16 +3120,16 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3136,16 +3152,16 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="58"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="5">
         <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3168,16 +3184,16 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="58"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="5">
         <v>5</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3200,16 +3216,16 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="5">
         <v>6</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3232,16 +3248,16 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="58"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="5">
         <v>7</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3264,16 +3280,16 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
       <c r="D41" s="5">
         <v>22</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3296,13 +3312,13 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="5">
@@ -3311,7 +3327,7 @@
       <c r="E42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3334,16 +3350,16 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3366,16 +3382,16 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="58"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3398,16 +3414,16 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="58"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3430,16 +3446,16 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="59"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
       <c r="D46" s="5">
         <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3462,13 +3478,13 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="5">
@@ -3477,7 +3493,7 @@
       <c r="E47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3500,16 +3516,16 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3532,16 +3548,16 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="59"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
       <c r="D49" s="5">
         <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3564,13 +3580,13 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="5">
@@ -3579,7 +3595,7 @@
       <c r="E50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="54"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3602,16 +3618,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="54"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3634,16 +3650,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="54"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3666,16 +3682,16 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3698,16 +3714,16 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
       <c r="D54" s="5">
         <v>5</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="52"/>
+      <c r="F54" s="59"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3730,13 +3746,13 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="53" t="s">
+      <c r="A55" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="56" t="s">
+      <c r="B55" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="53" t="s">
+      <c r="C55" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="5">
@@ -3745,7 +3761,7 @@
       <c r="E55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="51"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3768,16 +3784,16 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="52"/>
+      <c r="F56" s="59"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3834,13 +3850,13 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="5">
@@ -3849,7 +3865,7 @@
       <c r="E58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="56" t="s">
+      <c r="F58" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G58" s="2"/>
@@ -3874,16 +3890,16 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="54"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3906,16 +3922,16 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="54"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3938,16 +3954,16 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="54"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3970,16 +3986,16 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
       <c r="D62" s="5">
         <v>22</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="54"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -4002,13 +4018,13 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="53" t="s">
+      <c r="A63" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="5">
@@ -4017,7 +4033,7 @@
       <c r="E63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="54"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -4040,16 +4056,16 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="5">
         <v>2</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="54"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4072,16 +4088,16 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="5">
         <v>22</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4104,13 +4120,13 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="56" t="s">
+      <c r="B66" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="5">
@@ -4119,7 +4135,7 @@
       <c r="E66" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="51"/>
+      <c r="F66" s="61"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4142,16 +4158,16 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="54"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -30305,12 +30321,45 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F54"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="F58:F65"/>
     <mergeCell ref="F66:F67"/>
     <mergeCell ref="F55:F56"/>
@@ -30326,45 +30375,12 @@
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F54"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -30537,13 +30553,13 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
@@ -30552,7 +30568,7 @@
       <c r="E5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="51"/>
+      <c r="F5" s="61"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -30575,16 +30591,16 @@
       <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -30607,16 +30623,16 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -30639,16 +30655,16 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="5">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -30671,16 +30687,16 @@
       <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -30703,16 +30719,16 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="5">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -30735,16 +30751,16 @@
       <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="5">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -30767,16 +30783,16 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -30799,16 +30815,16 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -30831,16 +30847,16 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -30863,16 +30879,16 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -30895,16 +30911,16 @@
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -30927,16 +30943,16 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -30959,16 +30975,16 @@
       <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -30991,16 +31007,16 @@
       <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -31023,16 +31039,16 @@
       <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="5">
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -31055,16 +31071,16 @@
       <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="5">
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -31087,16 +31103,16 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="5">
         <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -31119,13 +31135,13 @@
       <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5">
@@ -31134,7 +31150,7 @@
       <c r="E23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="51"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -31157,16 +31173,16 @@
       <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -31189,16 +31205,16 @@
       <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="54"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -31221,16 +31237,16 @@
       <c r="Z25" s="22"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="5">
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="54"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -31253,16 +31269,16 @@
       <c r="Z26" s="22"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="5">
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -31285,16 +31301,16 @@
       <c r="Z27" s="22"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="5">
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="54"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -31317,16 +31333,16 @@
       <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="5">
         <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -31349,16 +31365,16 @@
       <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="5">
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="54"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -31381,16 +31397,16 @@
       <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="5">
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -31413,16 +31429,16 @@
       <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="5">
         <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
@@ -31445,16 +31461,16 @@
       <c r="Z32" s="22"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="5">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -31477,16 +31493,16 @@
       <c r="Z33" s="22"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="5">
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -31509,16 +31525,16 @@
       <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="5">
         <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
@@ -31541,16 +31557,16 @@
       <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="5">
         <v>14</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
@@ -31573,16 +31589,16 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="5">
         <v>15</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -31605,16 +31621,16 @@
       <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="5">
         <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -31637,16 +31653,16 @@
       <c r="Z38" s="22"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="5">
         <v>17</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="54"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -31669,16 +31685,16 @@
       <c r="Z39" s="22"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="5">
         <v>22</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="52"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -31701,13 +31717,13 @@
       <c r="Z40" s="22"/>
     </row>
     <row r="41" spans="1:26">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -31716,7 +31732,7 @@
       <c r="E41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="51" t="s">
+      <c r="F41" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="22"/>
@@ -31741,16 +31757,16 @@
       <c r="Z41" s="22"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="52"/>
+      <c r="F42" s="59"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -31773,13 +31789,13 @@
       <c r="Z42" s="22"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="5">
@@ -31788,7 +31804,7 @@
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="51" t="s">
+      <c r="F43" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="22"/>
@@ -31813,16 +31829,16 @@
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
@@ -31845,16 +31861,16 @@
       <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
@@ -31877,16 +31893,16 @@
       <c r="Z45" s="22"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="5">
         <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="54"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -31909,16 +31925,16 @@
       <c r="Z46" s="22"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
       <c r="D47" s="5">
         <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="54"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -31941,16 +31957,16 @@
       <c r="Z47" s="22"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
       <c r="D48" s="5">
         <v>7</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="54"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -31973,16 +31989,16 @@
       <c r="Z48" s="22"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="5">
         <v>8</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="54"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
@@ -32005,16 +32021,16 @@
       <c r="Z49" s="22"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="5">
         <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="54"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
@@ -32037,16 +32053,16 @@
       <c r="Z50" s="22"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="5">
         <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="54"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
@@ -32069,16 +32085,16 @@
       <c r="Z51" s="22"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="5">
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="54"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
@@ -32101,16 +32117,16 @@
       <c r="Z52" s="22"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="5">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="54"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -32133,16 +32149,16 @@
       <c r="Z53" s="22"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="5">
         <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="54"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -32165,16 +32181,16 @@
       <c r="Z54" s="22"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="5">
         <v>14</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -32197,16 +32213,16 @@
       <c r="Z55" s="22"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="5">
         <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="54"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
@@ -32229,16 +32245,16 @@
       <c r="Z56" s="22"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="5">
         <v>16</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -32261,16 +32277,16 @@
       <c r="Z57" s="22"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="5">
         <v>17</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="54"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -32293,16 +32309,16 @@
       <c r="Z58" s="22"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
       <c r="D59" s="5">
         <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="52"/>
+      <c r="F59" s="59"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -32325,18 +32341,18 @@
       <c r="Z59" s="22"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="51" t="s">
+      <c r="A60" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="51" t="s">
+      <c r="B60" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="23"/>
-      <c r="F60" s="51"/>
+      <c r="F60" s="61"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
@@ -32359,16 +32375,16 @@
       <c r="Z60" s="22"/>
     </row>
     <row r="61" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="8">
         <v>88</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="52"/>
+      <c r="F61" s="59"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
@@ -32391,13 +32407,13 @@
       <c r="Z61" s="22"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="53" t="s">
+      <c r="A62" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="14">
@@ -32406,7 +32422,7 @@
       <c r="E62" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F62" s="53"/>
+      <c r="F62" s="60"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -32429,16 +32445,16 @@
       <c r="Z62" s="22"/>
     </row>
     <row r="63" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="5">
         <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F63" s="52"/>
+      <c r="F63" s="59"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -32461,13 +32477,13 @@
       <c r="Z63" s="22"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="5">
@@ -32476,7 +32492,7 @@
       <c r="E64" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="51" t="s">
+      <c r="F64" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="22"/>
@@ -32501,16 +32517,16 @@
       <c r="Z64" s="22"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
       <c r="D65" s="5">
         <v>6</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="52"/>
+      <c r="F65" s="59"/>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -32533,13 +32549,13 @@
       <c r="Z65" s="22"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="60" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="5">
@@ -32548,7 +32564,7 @@
       <c r="E66" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="51" t="s">
+      <c r="F66" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="22"/>
@@ -32573,16 +32589,16 @@
       <c r="Z66" s="22"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
       <c r="D67" s="5">
         <v>6</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="52"/>
+      <c r="F67" s="59"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -32861,13 +32877,13 @@
       <c r="Z74" s="22"/>
     </row>
     <row r="75" spans="1:26">
-      <c r="A75" s="51" t="s">
+      <c r="A75" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="B75" s="51" t="s">
+      <c r="B75" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D75" s="5">
@@ -32876,7 +32892,7 @@
       <c r="E75" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F75" s="62" t="s">
+      <c r="F75" s="65" t="s">
         <v>159</v>
       </c>
       <c r="G75" s="22"/>
@@ -32901,16 +32917,16 @@
       <c r="Z75" s="22"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="5">
         <v>2</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F76" s="54"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -32933,16 +32949,16 @@
       <c r="Z76" s="22"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="5">
         <v>3</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F77" s="54"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -32965,16 +32981,16 @@
       <c r="Z77" s="22"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="5">
         <v>4</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F78" s="54"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -32997,16 +33013,16 @@
       <c r="Z78" s="22"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="5">
         <v>5</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F79" s="54"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -33029,16 +33045,16 @@
       <c r="Z79" s="22"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="5">
         <v>6</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="54"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -33061,16 +33077,16 @@
       <c r="Z80" s="22"/>
     </row>
     <row r="81" spans="1:26" ht="24">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58"/>
       <c r="D81" s="5">
         <v>7</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F81" s="54"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -33093,16 +33109,16 @@
       <c r="Z81" s="22"/>
     </row>
     <row r="82" spans="1:26">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="5">
         <v>8</v>
       </c>
       <c r="E82" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F82" s="54"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -33125,16 +33141,16 @@
       <c r="Z82" s="22"/>
     </row>
     <row r="83" spans="1:26" ht="24">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
       <c r="D83" s="5">
         <v>9</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="52"/>
+      <c r="F83" s="59"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -33265,13 +33281,13 @@
       <c r="Z86" s="22"/>
     </row>
     <row r="87" spans="1:26">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D87" s="5" t="s">
@@ -33280,7 +33296,7 @@
       <c r="E87" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F87" s="51" t="s">
+      <c r="F87" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="22"/>
@@ -33305,16 +33321,16 @@
       <c r="Z87" s="22"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="5" t="s">
         <v>177</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F88" s="54"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -33337,16 +33353,16 @@
       <c r="Z88" s="22"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="52"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="52"/>
+      <c r="A89" s="59"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
       <c r="D89" s="5" t="s">
         <v>179</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F89" s="52"/>
+      <c r="F89" s="59"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -33369,13 +33385,13 @@
       <c r="Z89" s="22"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="51" t="s">
+      <c r="A90" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D90" s="5">
@@ -33384,7 +33400,7 @@
       <c r="E90" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F90" s="51" t="s">
+      <c r="F90" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="22"/>
@@ -33409,16 +33425,16 @@
       <c r="Z90" s="22"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="5">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F91" s="54"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -33441,16 +33457,16 @@
       <c r="Z91" s="22"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
       <c r="D92" s="5">
         <v>88</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F92" s="52"/>
+      <c r="F92" s="59"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -33473,20 +33489,20 @@
       <c r="Z92" s="22"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="51" t="s">
+      <c r="A93" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="61" t="s">
         <v>125</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E93" s="4"/>
-      <c r="F93" s="51" t="s">
+      <c r="F93" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G93" s="22"/>
@@ -33511,14 +33527,14 @@
       <c r="Z93" s="22"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="52"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="52"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
       <c r="D94" s="5" t="s">
         <v>187</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="52"/>
+      <c r="F94" s="59"/>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -33541,13 +33557,13 @@
       <c r="Z94" s="22"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="51" t="s">
+      <c r="A95" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="61" t="s">
         <v>189</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D95" s="5">
@@ -33556,7 +33572,7 @@
       <c r="E95" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F95" s="51" t="s">
+      <c r="F95" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G95" s="22"/>
@@ -33581,16 +33597,16 @@
       <c r="Z95" s="22"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="52"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="52"/>
+      <c r="A96" s="59"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
       <c r="D96" s="5">
         <v>2</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F96" s="52"/>
+      <c r="F96" s="59"/>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -58961,42 +58977,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B43:B59"/>
-    <mergeCell ref="C43:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A5:A22"/>
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="C5:C22"/>
-    <mergeCell ref="F5:F22"/>
-    <mergeCell ref="B23:B40"/>
-    <mergeCell ref="C23:C40"/>
-    <mergeCell ref="F23:F40"/>
-    <mergeCell ref="A23:A40"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
     <mergeCell ref="F90:F92"/>
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="F87:F89"/>
@@ -59013,6 +58993,42 @@
     <mergeCell ref="C90:C92"/>
     <mergeCell ref="A93:A94"/>
     <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A5:A22"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="C5:C22"/>
+    <mergeCell ref="F5:F22"/>
+    <mergeCell ref="B23:B40"/>
+    <mergeCell ref="C23:C40"/>
+    <mergeCell ref="F23:F40"/>
+    <mergeCell ref="A23:A40"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C87:C89"/>
+    <mergeCell ref="B87:B89"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B43:B59"/>
+    <mergeCell ref="C43:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A66:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -59024,10 +59040,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1001"/>
+  <dimension ref="A1:F1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -59132,13 +59148,13 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5">
@@ -59147,28 +59163,28 @@
       <c r="E7" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="51"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5">
@@ -59177,100 +59193,100 @@
       <c r="E9" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5">
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5">
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="5">
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
       <c r="D16" s="5">
         <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5">
@@ -59279,90 +59295,90 @@
       <c r="E17" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F17" s="51" t="s">
+      <c r="F17" s="61" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="5">
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="5">
         <v>7</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="5">
@@ -59371,28 +59387,28 @@
       <c r="E24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="51"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="52"/>
+      <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="5">
@@ -59404,1274 +59420,1298 @@
       <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="70"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F27" s="51"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="70"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="54"/>
+      <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="70"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
       <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F29" s="54"/>
+      <c r="F29" s="58"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="70"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
+      <c r="A30" s="69"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="5">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="54"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="70"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="5">
         <v>5</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="70"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="5">
         <v>6</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="70"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="5">
         <v>7</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="70"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="5">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="70"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="70"/>
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="5">
         <v>9</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
+      <c r="A36" s="70"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="5">
         <v>22</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="59"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="5">
+        <v>0</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F37" s="52"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B38" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C38" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="51"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="5">
+      <c r="F38" s="61"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="5">
         <v>2</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F38" s="54"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="5">
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="5">
         <v>3</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F39" s="54"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="5">
+      <c r="F40" s="58"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="5">
         <v>22</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="52"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="51" t="s">
+      <c r="F41" s="59"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B42" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="51" t="s">
+      <c r="C42" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F41" s="51"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="5">
+      <c r="F42" s="61"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="5">
         <v>2</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="54"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="5">
+      <c r="F43" s="58"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="5">
         <v>3</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F43" s="54"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="5">
+      <c r="F44" s="58"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="5">
         <v>4</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F44" s="54"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="5">
+      <c r="F45" s="58"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="5">
         <v>5</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F45" s="54"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="5">
+      <c r="F46" s="58"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="5">
         <v>6</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="5">
+      <c r="F47" s="58"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="5">
         <v>7</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F47" s="54"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="5">
+      <c r="F48" s="58"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="59"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="5">
         <v>22</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="51" t="s">
+      <c r="F49" s="59"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B50" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C50" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D50" s="5">
         <v>0</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F50" s="66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="5">
+    <row r="51" spans="1:6">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="5">
         <v>1</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F50" s="64"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="5">
+      <c r="F51" s="67"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="59"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="5">
         <v>2</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="65"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="51" t="s">
+      <c r="F52" s="68"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B53" s="61" t="s">
         <v>251</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C53" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D53" s="5">
         <v>1</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E53" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F52" s="51"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="5">
+      <c r="F53" s="61"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="58"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="5">
         <v>2</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="54"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="5">
+      <c r="F54" s="58"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="5">
         <v>3</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F54" s="54"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="5">
+      <c r="F55" s="58"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="5">
         <v>4</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E56" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F55" s="54"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="5">
+      <c r="F56" s="58"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="5">
         <v>5</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F56" s="54"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="5">
+      <c r="F57" s="58"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="5">
         <v>6</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F57" s="54"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="5">
+      <c r="F58" s="58"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="5">
         <v>7</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F58" s="54"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="5">
+      <c r="F59" s="58"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="5">
         <v>8</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F59" s="54"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="5">
+      <c r="F60" s="58"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="5">
         <v>9</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F60" s="54"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="5">
+      <c r="F61" s="58"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="59"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="5">
         <v>10</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F61" s="52"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="51" t="s">
+      <c r="F62" s="59"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="B62" s="51" t="s">
+      <c r="B63" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="C62" s="51" t="s">
+      <c r="C63" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D63" s="5">
+        <v>0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="69"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="5">
         <v>1</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F62" s="51"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="5">
+      <c r="F64" s="61"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="69"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="5">
         <v>2</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F63" s="54"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="5">
+      <c r="F65" s="58"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="5">
         <v>3</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F64" s="54"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="5">
+      <c r="F66" s="58"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="69"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="5">
         <v>4</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E67" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F65" s="54"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="5">
+      <c r="F67" s="58"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="69"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="5">
         <v>5</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E68" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F66" s="54"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="5">
+      <c r="F68" s="58"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="5">
         <v>6</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E69" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F67" s="54"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="5">
+      <c r="F69" s="58"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="69"/>
+      <c r="B70" s="69"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="5">
         <v>7</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F68" s="54"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="5">
+      <c r="F70" s="58"/>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="70"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="5">
         <v>22</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F69" s="52"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="3" t="s">
+      <c r="F71" s="59"/>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B72" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="51" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="51"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="5">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F73" s="8"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B74" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C74" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D74" s="5">
         <v>1</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E74" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F71" s="51"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="5">
+      <c r="F74" s="61"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="5">
         <v>2</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F72" s="54"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="5">
+      <c r="F75" s="58"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="5">
         <v>3</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F73" s="54"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="5">
+      <c r="F76" s="58"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="58"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="5">
         <v>4</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E77" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F74" s="54"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="5">
+      <c r="F77" s="58"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="58"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="5">
         <v>5</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F75" s="54"/>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="5">
+      <c r="F78" s="58"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="58"/>
+      <c r="B79" s="58"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="5">
         <v>6</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F76" s="54"/>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="5">
+      <c r="F79" s="58"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="5">
         <v>7</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F77" s="54"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="52"/>
-      <c r="D78" s="5">
+      <c r="F80" s="58"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="59"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="5">
         <v>22</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="52"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="3" t="s">
+      <c r="F81" s="59"/>
+    </row>
+    <row r="82" spans="1:6" ht="24">
+      <c r="A82" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="51" t="s">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="51" t="s">
+      <c r="B83" s="64" t="s">
         <v>286</v>
       </c>
-      <c r="C80" s="51" t="s">
+      <c r="C83" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="5">
-        <v>1</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F80" s="51"/>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="5">
-        <v>2</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F81" s="54"/>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="5">
-        <v>3</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="F82" s="54"/>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="52"/>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
       <c r="D83" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F83" s="52"/>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="B84" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>11</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F83" s="8"/>
+    </row>
+    <row r="84" spans="1:6" ht="24">
+      <c r="A84" s="69"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="5">
         <v>1</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F84" s="51"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
+        <v>287</v>
+      </c>
+      <c r="F84" s="61"/>
+    </row>
+    <row r="85" spans="1:6" ht="36">
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="5">
         <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F85" s="54"/>
+        <v>288</v>
+      </c>
+      <c r="F85" s="58"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="69"/>
       <c r="D86" s="5">
         <v>3</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F86" s="54"/>
+        <v>289</v>
+      </c>
+      <c r="F86" s="58"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="52"/>
-      <c r="B87" s="52"/>
-      <c r="C87" s="52"/>
+      <c r="A87" s="70"/>
+      <c r="B87" s="70"/>
+      <c r="C87" s="70"/>
       <c r="D87" s="5">
         <v>4</v>
       </c>
       <c r="E87" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="59"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>292</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="5">
+        <v>0</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="52"/>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="69"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F89" s="61"/>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="69"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="69"/>
+      <c r="D90" s="5">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F90" s="58"/>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="69"/>
+      <c r="B91" s="69"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F91" s="58"/>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="70"/>
+      <c r="B92" s="70"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="5">
+        <v>4</v>
+      </c>
+      <c r="E92" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F87" s="52"/>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="51" t="s">
+      <c r="F92" s="59"/>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B93" s="64" t="s">
         <v>298</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C93" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="5">
-        <v>1</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F88" s="51"/>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="5">
-        <v>2</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F89" s="54"/>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="54"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54"/>
-      <c r="D90" s="5">
-        <v>3</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F90" s="54"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="54"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="54"/>
-      <c r="D91" s="5">
-        <v>4</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F91" s="54"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="52"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="5">
-        <v>22</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="52"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="B94" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>11</v>
-      </c>
+      <c r="D93" s="5">
+        <v>0</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F93" s="52"/>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A94" s="69"/>
+      <c r="B94" s="69"/>
+      <c r="C94" s="69"/>
       <c r="D94" s="5">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="F94" s="51"/>
+        <v>299</v>
+      </c>
+      <c r="F94" s="61"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="54"/>
-      <c r="B95" s="54"/>
-      <c r="C95" s="54"/>
+      <c r="A95" s="69"/>
+      <c r="B95" s="69"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="5">
         <v>2</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F95" s="54"/>
+        <v>300</v>
+      </c>
+      <c r="F95" s="58"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="54"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="54"/>
+      <c r="A96" s="69"/>
+      <c r="B96" s="69"/>
+      <c r="C96" s="69"/>
       <c r="D96" s="5">
         <v>3</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F96" s="54"/>
+        <v>301</v>
+      </c>
+      <c r="F96" s="58"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="54"/>
-      <c r="B97" s="54"/>
-      <c r="C97" s="54"/>
+      <c r="A97" s="69"/>
+      <c r="B97" s="69"/>
+      <c r="C97" s="69"/>
       <c r="D97" s="5">
         <v>4</v>
       </c>
       <c r="E97" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" s="58"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="70"/>
+      <c r="B98" s="70"/>
+      <c r="C98" s="70"/>
+      <c r="D98" s="5">
+        <v>22</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="59"/>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F100" s="61"/>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="58"/>
+      <c r="B101" s="58"/>
+      <c r="C101" s="58"/>
+      <c r="D101" s="5">
+        <v>2</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F101" s="58"/>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="58"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="58"/>
+      <c r="D102" s="5">
+        <v>3</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F102" s="58"/>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="5">
+        <v>4</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F97" s="54"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="52"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="52"/>
-      <c r="D98" s="5">
+      <c r="F103" s="58"/>
+    </row>
+    <row r="104" spans="1:6" ht="24">
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="5">
         <v>5</v>
       </c>
-      <c r="E98" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F98" s="52"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="51" t="s">
+      <c r="F104" s="59"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B105" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="C99" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" s="5">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F99" s="51"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="5">
-        <v>2</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F100" s="54"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="54"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="5">
-        <v>3</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="F101" s="54"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="54"/>
-      <c r="B102" s="54"/>
-      <c r="C102" s="54"/>
-      <c r="D102" s="5">
-        <v>4</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F102" s="54"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="5">
-        <v>5</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F103" s="54"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="52"/>
-      <c r="B104" s="52"/>
-      <c r="C104" s="52"/>
-      <c r="D104" s="5">
-        <v>22</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="52"/>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" s="51" t="s">
-        <v>319</v>
-      </c>
-      <c r="B105" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="61" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="5">
         <v>1</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F105" s="51" t="s">
-        <v>321</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F105" s="61"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="52"/>
-      <c r="B106" s="52"/>
-      <c r="C106" s="52"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="58"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="5">
         <v>2</v>
       </c>
       <c r="E106" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F106" s="58"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="5">
+        <v>3</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F107" s="58"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="58"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="5">
+        <v>4</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F108" s="58"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="58"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="5">
+        <v>5</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F109" s="58"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="59"/>
+      <c r="B110" s="59"/>
+      <c r="C110" s="59"/>
+      <c r="D110" s="5">
+        <v>22</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" s="59"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="61" t="s">
+        <v>319</v>
+      </c>
+      <c r="B111" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F111" s="61" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="59"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="59"/>
+      <c r="D112" s="5">
+        <v>2</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F106" s="52"/>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" s="51" t="s">
+      <c r="F112" s="59"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B113" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="C107" s="51" t="s">
+      <c r="C113" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D113" s="5">
         <v>1</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F107" s="51"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" s="52"/>
-      <c r="B108" s="52"/>
-      <c r="C108" s="52"/>
-      <c r="D108" s="5">
+      <c r="F113" s="61"/>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="59"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="59"/>
+      <c r="D114" s="5">
         <v>2</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F108" s="52"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" s="51" t="s">
+      <c r="F114" s="59"/>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B109" s="51" t="s">
+      <c r="B115" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="C109" s="51" t="s">
+      <c r="C115" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D115" s="5">
         <v>1</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F109" s="51"/>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" s="54"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="54"/>
-      <c r="D110" s="5">
+      <c r="F115" s="61"/>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="58"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="58"/>
+      <c r="D116" s="5">
         <v>2</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F110" s="54"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="54"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="5">
+      <c r="F116" s="58"/>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="58"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="58"/>
+      <c r="D117" s="5">
         <v>3</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F111" s="54"/>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" s="54"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="54"/>
-      <c r="D112" s="5">
+      <c r="F117" s="58"/>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="58"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="58"/>
+      <c r="D118" s="5">
         <v>4</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F112" s="54"/>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" s="54"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="54"/>
-      <c r="D113" s="5">
+      <c r="F118" s="58"/>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="58"/>
+      <c r="B119" s="58"/>
+      <c r="C119" s="58"/>
+      <c r="D119" s="5">
         <v>5</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E119" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F113" s="54"/>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" s="54"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54"/>
-      <c r="D114" s="5">
+      <c r="F119" s="58"/>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="5">
         <v>6</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E120" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F114" s="54"/>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" s="54"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="54"/>
-      <c r="D115" s="5">
+      <c r="F120" s="58"/>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="58"/>
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="5">
         <v>7</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F115" s="54"/>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" s="54"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="54"/>
-      <c r="D116" s="5">
+      <c r="F121" s="58"/>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="58"/>
+      <c r="B122" s="58"/>
+      <c r="C122" s="58"/>
+      <c r="D122" s="5">
         <v>8</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E122" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F116" s="54"/>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" s="54"/>
-      <c r="B117" s="54"/>
-      <c r="C117" s="54"/>
-      <c r="D117" s="5">
+      <c r="F122" s="58"/>
+    </row>
+    <row r="123" spans="1:6" ht="24">
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="5">
         <v>9</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F117" s="54"/>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" s="54"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="5">
+      <c r="F123" s="58"/>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="58"/>
+      <c r="B124" s="58"/>
+      <c r="C124" s="58"/>
+      <c r="D124" s="5">
         <v>10</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F118" s="54"/>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" s="54"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="5">
+      <c r="F124" s="58"/>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="58"/>
+      <c r="B125" s="58"/>
+      <c r="C125" s="58"/>
+      <c r="D125" s="5">
         <v>11</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E125" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F119" s="54"/>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" s="52"/>
-      <c r="B120" s="52"/>
-      <c r="C120" s="52"/>
-      <c r="D120" s="5">
+      <c r="F125" s="58"/>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="59"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="59"/>
+      <c r="D126" s="5">
         <v>22</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F120" s="52"/>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" s="27"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" s="27"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" s="27"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124" s="27"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" s="27"/>
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126" s="27"/>
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
+      <c r="F126" s="59"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="27"/>
@@ -67673,52 +67713,80 @@
       <c r="E1001" s="27"/>
       <c r="F1001" s="27"/>
     </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="27"/>
+      <c r="B1002" s="27"/>
+      <c r="C1002" s="27"/>
+      <c r="D1002" s="27"/>
+      <c r="E1002" s="27"/>
+      <c r="F1002" s="27"/>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="27"/>
+      <c r="B1003" s="27"/>
+      <c r="C1003" s="27"/>
+      <c r="D1003" s="27"/>
+      <c r="E1003" s="27"/>
+      <c r="F1003" s="27"/>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="27"/>
+      <c r="B1004" s="27"/>
+      <c r="C1004" s="27"/>
+      <c r="D1004" s="27"/>
+      <c r="E1004" s="27"/>
+      <c r="F1004" s="27"/>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="27"/>
+      <c r="B1005" s="27"/>
+      <c r="C1005" s="27"/>
+      <c r="D1005" s="27"/>
+      <c r="E1005" s="27"/>
+      <c r="F1005" s="27"/>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="27"/>
+      <c r="B1006" s="27"/>
+      <c r="C1006" s="27"/>
+      <c r="D1006" s="27"/>
+      <c r="E1006" s="27"/>
+      <c r="F1006" s="27"/>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="27"/>
+      <c r="B1007" s="27"/>
+      <c r="C1007" s="27"/>
+      <c r="D1007" s="27"/>
+      <c r="E1007" s="27"/>
+      <c r="F1007" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="F71:F78"/>
-    <mergeCell ref="F109:F120"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F27:F36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F41:F48"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F61"/>
-    <mergeCell ref="F80:F83"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="F99:F104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="A71:A78"/>
-    <mergeCell ref="B71:B78"/>
-    <mergeCell ref="C71:C78"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="B80:B83"/>
-    <mergeCell ref="C80:C83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="F84:F87"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="A94:A98"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="C94:C98"/>
-    <mergeCell ref="A99:A104"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="C99:C104"/>
-    <mergeCell ref="B109:B120"/>
-    <mergeCell ref="C109:C120"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="A109:A120"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A49"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
@@ -67727,30 +67795,50 @@
     <mergeCell ref="C9:C16"/>
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B41:B48"/>
-    <mergeCell ref="C41:C48"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="A41:A48"/>
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="C52:C61"/>
-    <mergeCell ref="A62:A69"/>
+    <mergeCell ref="B115:B126"/>
+    <mergeCell ref="C115:C126"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A126"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="F64:F71"/>
+    <mergeCell ref="F74:F81"/>
+    <mergeCell ref="F115:F126"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F27:F36"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="F42:F49"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F53:F62"/>
+    <mergeCell ref="F84:F87"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="F105:F110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="F113:F114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -67859,13 +67947,13 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="61" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="31">
@@ -67874,247 +67962,247 @@
       <c r="E6" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="F6" s="51"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="64"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="67"/>
       <c r="D7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="31">
         <v>3</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="58"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="64"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="31">
         <v>4</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="64"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="31">
         <v>5</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="58"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="64"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="31">
         <v>6</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="64"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="31">
         <v>7</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="F12" s="54"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="64"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="31">
         <v>8</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="F13" s="54"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="64"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="31">
         <v>9</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="64"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="31">
         <v>10</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="64"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="67"/>
       <c r="D16" s="31">
         <v>11</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="54"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="64"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="31">
         <v>12</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F17" s="54"/>
+      <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="64"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="31">
         <v>13</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="F18" s="54"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="64"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="31">
         <v>14</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F19" s="54"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="64"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="31">
         <v>15</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="54"/>
+      <c r="F20" s="58"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="64"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="31">
         <v>16</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="54"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="64"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="31">
         <v>17</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F22" s="54"/>
+      <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="64"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="31">
         <v>18</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="54"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="64"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="31">
         <v>19</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="54"/>
+      <c r="F24" s="58"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="64"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="67"/>
       <c r="D25" s="31">
         <v>20</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="54"/>
+      <c r="F25" s="58"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="65"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="31">
         <v>22</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34" t="s">
@@ -68145,13 +68233,13 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="61" t="s">
         <v>366</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="35">
@@ -68160,138 +68248,138 @@
       <c r="E29" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="51" t="s">
+      <c r="F29" s="61" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="64"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="31">
         <v>2</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="54"/>
+      <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="64"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="31">
         <v>3</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F31" s="54"/>
+      <c r="F31" s="58"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="64"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="31">
         <v>4</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="58"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="64"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="31">
         <v>5</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="64"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="31">
         <v>6</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="58"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="64"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="31">
         <v>7</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="64"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="31">
         <v>8</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="58"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="64"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="31">
         <v>9</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="64"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="31">
         <v>10</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="31">
         <v>22</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="59"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="72" t="s">
         <v>379</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="35">
@@ -68300,79 +68388,79 @@
       <c r="E40" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="F40" s="51"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="64"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="31">
         <v>2</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="F41" s="54"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="64"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="31">
         <v>3</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="54"/>
+      <c r="F42" s="58"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="64"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="31">
         <v>4</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="54"/>
+      <c r="F43" s="58"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="64"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="31">
         <v>5</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="54"/>
+      <c r="F44" s="58"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="64"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="31">
         <v>6</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="54"/>
+      <c r="F45" s="58"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="65"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="31">
         <v>22</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="52"/>
+      <c r="F46" s="59"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="37" t="s">
@@ -68391,91 +68479,91 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="74" t="s">
         <v>390</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="60" t="s">
         <v>391</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="68"/>
+      <c r="F48" s="71"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="54"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="65"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="39">
         <v>88</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="F49" s="52"/>
+      <c r="F49" s="59"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="60" t="s">
         <v>394</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="68"/>
+      <c r="F50" s="71"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="65"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="31">
         <v>88</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="F51" s="52"/>
+      <c r="F51" s="59"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="53" t="s">
+      <c r="A52" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="60" t="s">
         <v>397</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="50"/>
-      <c r="F52" s="68"/>
+      <c r="F52" s="71"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="65"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="5">
         <v>88</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F53" s="52"/>
+      <c r="F53" s="59"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="51" t="s">
+      <c r="A54" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="B54" s="51" t="s">
+      <c r="B54" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5">
@@ -68484,166 +68572,166 @@
       <c r="E54" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="61" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="64"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F55" s="54"/>
+      <c r="F55" s="58"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="64"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="5">
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F56" s="54"/>
+      <c r="F56" s="58"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="64"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="5">
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F57" s="54"/>
+      <c r="F57" s="58"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="64"/>
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="5">
         <v>5</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F58" s="54"/>
+      <c r="F58" s="58"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="64"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="5">
         <v>6</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F59" s="54"/>
+      <c r="F59" s="58"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="64"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="5">
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F60" s="54"/>
+      <c r="F60" s="58"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="64"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="5">
         <v>8</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="54"/>
+      <c r="F61" s="58"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="64"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="5">
         <v>9</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F62" s="54"/>
+      <c r="F62" s="58"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="64"/>
+      <c r="A63" s="58"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="5">
         <v>10</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F63" s="54"/>
+      <c r="F63" s="58"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="65"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="5">
         <v>22</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F64" s="52"/>
+      <c r="F64" s="59"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="61" t="s">
         <v>401</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="61" t="s">
         <v>402</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="68" t="s">
+      <c r="F65" s="71" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="65"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="5">
         <v>88</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="F66" s="52"/>
+      <c r="F66" s="59"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="53" t="s">
+      <c r="A67" s="60" t="s">
         <v>405</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="60" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="35">
@@ -68652,129 +68740,129 @@
       <c r="E67" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="51" t="s">
+      <c r="F67" s="61" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="64"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="31">
         <v>2</v>
       </c>
       <c r="E68" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F68" s="54"/>
+      <c r="F68" s="58"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="64"/>
+      <c r="A69" s="58"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="31">
         <v>3</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F69" s="54"/>
+      <c r="F69" s="58"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="64"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="31">
         <v>4</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="54"/>
+      <c r="F70" s="58"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="64"/>
+      <c r="A71" s="58"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="31">
         <v>5</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F71" s="54"/>
+      <c r="F71" s="58"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="64"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="31">
         <v>6</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F72" s="54"/>
+      <c r="F72" s="58"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="64"/>
+      <c r="A73" s="58"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="31">
         <v>7</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F73" s="54"/>
+      <c r="F73" s="58"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="64"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="31">
         <v>8</v>
       </c>
       <c r="E74" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F74" s="54"/>
+      <c r="F74" s="58"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="64"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="31">
         <v>9</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F75" s="54"/>
+      <c r="F75" s="58"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="64"/>
+      <c r="A76" s="58"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="31">
         <v>10</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F76" s="54"/>
+      <c r="F76" s="58"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="65"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="68"/>
       <c r="D77" s="31">
         <v>22</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F77" s="52"/>
+      <c r="F77" s="59"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19"/>
@@ -76194,11 +76282,21 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="F40:F46"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="F67:F77"/>
     <mergeCell ref="A6:A26"/>
@@ -76215,21 +76313,11 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F40:F46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Datos/Diccionario_ENMODO18.xlsx
+++ b/Datos/Diccionario_ENMODO18.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="600" windowWidth="13815" windowHeight="4050" activeTab="2"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="13815" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Base_hogares" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="413">
   <si>
     <t>Campo</t>
   </si>
@@ -1261,6 +1261,9 @@
   <si>
     <t>Si tiene empelo</t>
   </si>
+  <si>
+    <t>No aplica condicion</t>
+  </si>
 </sst>
 </file>
 
@@ -1332,7 +1335,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1489,11 +1492,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1646,44 +1773,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1691,12 +1824,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1917,7 +2070,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2008,13 +2161,13 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5">
@@ -2023,7 +2176,7 @@
       <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2"/>
@@ -2048,16 +2201,16 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="5">
         <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2150,13 +2303,13 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="56" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5">
@@ -2165,7 +2318,7 @@
       <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2188,16 +2341,16 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2220,16 +2373,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="5">
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2252,16 +2405,16 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="5">
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2284,16 +2437,16 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2316,16 +2469,16 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5">
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2348,16 +2501,16 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="5">
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2380,16 +2533,16 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="5">
         <v>22</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -2412,13 +2565,13 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="5">
@@ -2427,7 +2580,7 @@
       <c r="E15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="64"/>
+      <c r="F15" s="58"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -2450,16 +2603,16 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2482,16 +2635,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="55"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="5">
         <v>3</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -2514,16 +2667,16 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="55"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="5">
         <v>4</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -2546,16 +2699,16 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="24">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2578,16 +2731,16 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="24">
-      <c r="A20" s="55"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="5">
         <v>6</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -2610,16 +2763,16 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="8">
         <v>22</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -2676,13 +2829,13 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="60" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5">
@@ -2691,7 +2844,7 @@
       <c r="E23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2714,16 +2867,16 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -2746,18 +2899,18 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="60" t="s">
         <v>43</v>
       </c>
       <c r="B25" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="61"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -2780,16 +2933,16 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="5">
         <v>88</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="59"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -2812,18 +2965,18 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="56" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="61"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -2846,16 +2999,16 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="5">
         <v>88</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="59"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -2878,13 +3031,13 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="5">
@@ -2893,7 +3046,7 @@
       <c r="E29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="61"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -2916,16 +3069,16 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="5">
         <v>2</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F30" s="59"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -2982,18 +3135,18 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="12" customHeight="1">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="61"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3016,16 +3169,16 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="23.25" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="5">
         <v>88</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3048,13 +3201,13 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="5">
@@ -3063,7 +3216,7 @@
       <c r="E34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="56" t="s">
         <v>59</v>
       </c>
       <c r="G34" s="2"/>
@@ -3088,16 +3241,16 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="5">
         <v>2</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -3120,16 +3273,16 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -3152,16 +3305,16 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="5">
         <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -3184,16 +3337,16 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A38" s="55"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="5">
         <v>5</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -3216,16 +3369,16 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="5">
         <v>6</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -3248,16 +3401,16 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="55"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="5">
         <v>7</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -3280,16 +3433,16 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="5">
         <v>22</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -3312,13 +3465,13 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="5">
@@ -3327,7 +3480,7 @@
       <c r="E42" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -3350,16 +3503,16 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="55"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -3382,16 +3535,16 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="55"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -3414,16 +3567,16 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="55"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -3446,16 +3599,16 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="59"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="5">
         <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -3478,13 +3631,13 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="5">
@@ -3493,7 +3646,7 @@
       <c r="E47" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -3516,16 +3669,16 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="55"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="5">
         <v>2</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -3548,16 +3701,16 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="5">
         <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="58"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -3580,13 +3733,13 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="60" t="s">
+      <c r="A50" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="5">
@@ -3595,7 +3748,7 @@
       <c r="E50" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -3618,16 +3771,16 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -3650,16 +3803,16 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="5">
         <v>3</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -3682,16 +3835,16 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -3714,16 +3867,16 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="5">
         <v>5</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="59"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -3746,13 +3899,13 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="5">
@@ -3761,7 +3914,7 @@
       <c r="E55" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F55" s="61"/>
+      <c r="F55" s="54"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -3784,16 +3937,16 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="5">
         <v>2</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="59"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -3850,13 +4003,13 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="60" t="s">
+      <c r="C58" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="5">
@@ -3865,7 +4018,7 @@
       <c r="E58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="59" t="s">
         <v>89</v>
       </c>
       <c r="G58" s="2"/>
@@ -3890,16 +4043,16 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="5">
         <v>2</v>
       </c>
       <c r="E59" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="58"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -3922,16 +4075,16 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="5">
         <v>3</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -3954,16 +4107,16 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="58"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -3986,16 +4139,16 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="5">
         <v>22</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="57"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -4018,13 +4171,13 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="5">
@@ -4033,7 +4186,7 @@
       <c r="E63" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="57"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -4056,16 +4209,16 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="5">
         <v>2</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F64" s="58"/>
+      <c r="F64" s="57"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -4088,16 +4241,16 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="5">
         <v>22</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="59"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -4120,13 +4273,13 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="56" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="5">
@@ -4135,7 +4288,7 @@
       <c r="E66" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="61"/>
+      <c r="F66" s="54"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -4158,16 +4311,16 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="58"/>
+      <c r="F67" s="57"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -30321,45 +30474,12 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F54"/>
-    <mergeCell ref="F15:F21"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A41"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B50:B54"/>
+    <mergeCell ref="C50:C54"/>
     <mergeCell ref="F58:F65"/>
     <mergeCell ref="F66:F67"/>
     <mergeCell ref="F55:F56"/>
@@ -30375,12 +30495,45 @@
     <mergeCell ref="B58:B62"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A41"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F54"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -30392,9 +30545,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30553,13 +30708,13 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="54" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
@@ -30568,7 +30723,7 @@
       <c r="E5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="61"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
@@ -30591,16 +30746,16 @@
       <c r="Z5" s="22"/>
     </row>
     <row r="6" spans="1:26">
-      <c r="A6" s="58"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -30623,16 +30778,16 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -30655,16 +30810,16 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="5">
         <v>4</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
@@ -30687,16 +30842,16 @@
       <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -30719,16 +30874,16 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="5">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
@@ -30751,16 +30906,16 @@
       <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
@@ -30783,16 +30938,16 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
@@ -30815,16 +30970,16 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="5">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="57"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -30847,16 +31002,16 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -30879,16 +31034,16 @@
       <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="5">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="57"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -30911,16 +31066,16 @@
       <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="5">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="57"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -30943,16 +31098,16 @@
       <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="5">
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -30975,16 +31130,16 @@
       <c r="Z17" s="22"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="5">
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -31007,16 +31162,16 @@
       <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
@@ -31039,16 +31194,16 @@
       <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="5">
         <v>16</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -31071,16 +31226,16 @@
       <c r="Z20" s="22"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="5">
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="22"/>
@@ -31103,16 +31258,16 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="5">
         <v>22</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
       <c r="I22" s="22"/>
@@ -31135,13 +31290,13 @@
       <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5">
@@ -31150,7 +31305,7 @@
       <c r="E23" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
@@ -31173,16 +31328,16 @@
       <c r="Z23" s="22"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="5">
         <v>2</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
       <c r="I24" s="22"/>
@@ -31205,16 +31360,16 @@
       <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="5">
         <v>3</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
       <c r="I25" s="22"/>
@@ -31237,16 +31392,16 @@
       <c r="Z25" s="22"/>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="5">
         <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="58"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
@@ -31269,16 +31424,16 @@
       <c r="Z26" s="22"/>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="5">
         <v>5</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="58"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
@@ -31301,16 +31456,16 @@
       <c r="Z27" s="22"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="5">
         <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
@@ -31333,16 +31488,16 @@
       <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="58"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="5">
         <v>7</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
@@ -31365,16 +31520,16 @@
       <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="5">
         <v>8</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
@@ -31397,16 +31552,16 @@
       <c r="Z30" s="22"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="5">
         <v>9</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
@@ -31429,16 +31584,16 @@
       <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="5">
         <v>10</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
@@ -31461,16 +31616,16 @@
       <c r="Z32" s="22"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="5">
         <v>11</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
@@ -31493,16 +31648,16 @@
       <c r="Z33" s="22"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="5">
         <v>12</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
@@ -31525,16 +31680,16 @@
       <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="5">
         <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
@@ -31557,16 +31712,16 @@
       <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="5">
         <v>14</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
@@ -31589,16 +31744,16 @@
       <c r="Z36" s="22"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="5">
         <v>15</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
@@ -31621,16 +31776,16 @@
       <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="1:26">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="5">
         <v>16</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
@@ -31653,16 +31808,16 @@
       <c r="Z38" s="22"/>
     </row>
     <row r="39" spans="1:26">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="5">
         <v>17</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
@@ -31685,16 +31840,16 @@
       <c r="Z39" s="22"/>
     </row>
     <row r="40" spans="1:26">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="5">
         <v>22</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="59"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="22"/>
@@ -31720,10 +31875,10 @@
       <c r="A41" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="C41" s="54" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -31732,7 +31887,7 @@
       <c r="E41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F41" s="61" t="s">
+      <c r="F41" s="54" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="22"/>
@@ -31757,16 +31912,16 @@
       <c r="Z41" s="22"/>
     </row>
     <row r="42" spans="1:26">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="59"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
       <c r="I42" s="22"/>
@@ -31789,13 +31944,13 @@
       <c r="Z42" s="22"/>
     </row>
     <row r="43" spans="1:26">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="5">
@@ -31804,7 +31959,7 @@
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="61" t="s">
+      <c r="F43" s="54" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="22"/>
@@ -31829,16 +31984,16 @@
       <c r="Z43" s="22"/>
     </row>
     <row r="44" spans="1:26">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
       <c r="I44" s="22"/>
@@ -31861,16 +32016,16 @@
       <c r="Z44" s="22"/>
     </row>
     <row r="45" spans="1:26">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="57"/>
       <c r="G45" s="22"/>
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
@@ -31893,16 +32048,16 @@
       <c r="Z45" s="22"/>
     </row>
     <row r="46" spans="1:26">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="5">
         <v>5</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="22"/>
       <c r="H46" s="22"/>
       <c r="I46" s="22"/>
@@ -31925,16 +32080,16 @@
       <c r="Z46" s="22"/>
     </row>
     <row r="47" spans="1:26">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="5">
         <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="22"/>
       <c r="H47" s="22"/>
       <c r="I47" s="22"/>
@@ -31957,16 +32112,16 @@
       <c r="Z47" s="22"/>
     </row>
     <row r="48" spans="1:26">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="5">
         <v>7</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="57"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="22"/>
@@ -31989,16 +32144,16 @@
       <c r="Z48" s="22"/>
     </row>
     <row r="49" spans="1:26">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
       <c r="D49" s="5">
         <v>8</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="58"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="22"/>
       <c r="H49" s="22"/>
       <c r="I49" s="22"/>
@@ -32021,16 +32176,16 @@
       <c r="Z49" s="22"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="5">
         <v>9</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="57"/>
       <c r="G50" s="22"/>
       <c r="H50" s="22"/>
       <c r="I50" s="22"/>
@@ -32053,16 +32208,16 @@
       <c r="Z50" s="22"/>
     </row>
     <row r="51" spans="1:26">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="5">
         <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F51" s="58"/>
+      <c r="F51" s="57"/>
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22"/>
@@ -32085,16 +32240,16 @@
       <c r="Z51" s="22"/>
     </row>
     <row r="52" spans="1:26">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="5">
         <v>11</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="58"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22"/>
@@ -32117,16 +32272,16 @@
       <c r="Z52" s="22"/>
     </row>
     <row r="53" spans="1:26">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
       <c r="D53" s="5">
         <v>12</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="58"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="22"/>
       <c r="H53" s="22"/>
       <c r="I53" s="22"/>
@@ -32149,16 +32304,16 @@
       <c r="Z53" s="22"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="5">
         <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="57"/>
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22"/>
@@ -32181,16 +32336,16 @@
       <c r="Z54" s="22"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="5">
         <v>14</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="57"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
       <c r="I55" s="22"/>
@@ -32213,16 +32368,16 @@
       <c r="Z55" s="22"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="5">
         <v>15</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="57"/>
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22"/>
@@ -32245,16 +32400,16 @@
       <c r="Z56" s="22"/>
     </row>
     <row r="57" spans="1:26">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="5">
         <v>16</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F57" s="58"/>
+      <c r="F57" s="57"/>
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22"/>
@@ -32277,16 +32432,16 @@
       <c r="Z57" s="22"/>
     </row>
     <row r="58" spans="1:26">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="5">
         <v>17</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="58"/>
+      <c r="F58" s="57"/>
       <c r="G58" s="22"/>
       <c r="H58" s="22"/>
       <c r="I58" s="22"/>
@@ -32309,16 +32464,16 @@
       <c r="Z58" s="22"/>
     </row>
     <row r="59" spans="1:26">
-      <c r="A59" s="59"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="5">
         <v>22</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F59" s="59"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22"/>
@@ -32341,18 +32496,18 @@
       <c r="Z59" s="22"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="23"/>
-      <c r="F60" s="61"/>
+      <c r="F60" s="54"/>
       <c r="G60" s="22"/>
       <c r="H60" s="22"/>
       <c r="I60" s="22"/>
@@ -32375,16 +32530,16 @@
       <c r="Z60" s="22"/>
     </row>
     <row r="61" spans="1:26" ht="25.5" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="8">
         <v>88</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="59"/>
+      <c r="F61" s="57"/>
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22"/>
@@ -32406,23 +32561,23 @@
       <c r="Y61" s="22"/>
       <c r="Z61" s="22"/>
     </row>
-    <row r="62" spans="1:26">
-      <c r="A62" s="60" t="s">
+    <row r="62" spans="1:26" ht="25.5" customHeight="1">
+      <c r="A62" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="14">
-        <v>1</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="60"/>
+      <c r="D62" s="77">
+        <v>0</v>
+      </c>
+      <c r="E62" s="77" t="s">
+        <v>412</v>
+      </c>
+      <c r="F62" s="78"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22"/>
@@ -32444,17 +32599,17 @@
       <c r="Y62" s="22"/>
       <c r="Z62" s="22"/>
     </row>
-    <row r="63" spans="1:26" ht="37.5" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="5">
-        <v>2</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="59"/>
+    <row r="63" spans="1:26" ht="15" customHeight="1">
+      <c r="A63" s="79"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="14">
+        <v>1</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="80"/>
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22"/>
@@ -32476,25 +32631,17 @@
       <c r="Y63" s="22"/>
       <c r="Z63" s="22"/>
     </row>
-    <row r="64" spans="1:26">
-      <c r="A64" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="5">
+    <row r="64" spans="1:26" ht="37.5" customHeight="1">
+      <c r="A64" s="81"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="83">
         <v>2</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="61" t="s">
-        <v>8</v>
-      </c>
+      <c r="E64" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="84"/>
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22"/>
@@ -32517,16 +32664,24 @@
       <c r="Z64" s="22"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
+      <c r="A65" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>11</v>
+      </c>
       <c r="D65" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="59"/>
+        <v>12</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22"/>
@@ -32549,24 +32704,16 @@
       <c r="Z65" s="22"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B66" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>11</v>
-      </c>
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
       <c r="D66" s="5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="61" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F66" s="55"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="22"/>
@@ -32589,16 +32736,24 @@
       <c r="Z66" s="22"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
+      <c r="A67" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>11</v>
+      </c>
       <c r="D67" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="59"/>
+        <v>12</v>
+      </c>
+      <c r="F67" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="22"/>
@@ -32620,21 +32775,17 @@
       <c r="Y67" s="22"/>
       <c r="Z67" s="22"/>
     </row>
-    <row r="68" spans="1:26" ht="24">
-      <c r="A68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="68" spans="1:26">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="5">
+        <v>6</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="55"/>
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22"/>
@@ -32658,12 +32809,12 @@
     </row>
     <row r="69" spans="1:26" ht="24">
       <c r="A69" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D69" s="5"/>
@@ -32694,13 +32845,13 @@
     </row>
     <row r="70" spans="1:26" ht="24">
       <c r="A70" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="23"/>
@@ -32730,10 +32881,10 @@
     </row>
     <row r="71" spans="1:26" ht="24">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>11</v>
@@ -32766,19 +32917,17 @@
     </row>
     <row r="72" spans="1:26" ht="24">
       <c r="A72" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="5"/>
-      <c r="E72" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="F72" s="12" t="s">
+      <c r="E72" s="23"/>
+      <c r="F72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="22"/>
@@ -32804,10 +32953,10 @@
     </row>
     <row r="73" spans="1:26" ht="24">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>11</v>
@@ -32842,17 +32991,19 @@
     </row>
     <row r="74" spans="1:26" ht="24">
       <c r="A74" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="4" t="s">
+      <c r="E74" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G74" s="22"/>
@@ -32876,24 +33027,20 @@
       <c r="Y74" s="22"/>
       <c r="Z74" s="22"/>
     </row>
-    <row r="75" spans="1:26">
-      <c r="A75" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="61" t="s">
+    <row r="75" spans="1:26" ht="24">
+      <c r="A75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="5">
-        <v>1</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F75" s="65" t="s">
-        <v>159</v>
+      <c r="D75" s="5"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
@@ -32917,16 +33064,24 @@
       <c r="Z75" s="22"/>
     </row>
     <row r="76" spans="1:26">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>11</v>
+      </c>
       <c r="D76" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="58"/>
+        <v>158</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>159</v>
+      </c>
       <c r="G76" s="22"/>
       <c r="H76" s="22"/>
       <c r="I76" s="22"/>
@@ -32949,16 +33104,16 @@
       <c r="Z76" s="22"/>
     </row>
     <row r="77" spans="1:26">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" s="58"/>
+        <v>160</v>
+      </c>
+      <c r="F77" s="57"/>
       <c r="G77" s="22"/>
       <c r="H77" s="22"/>
       <c r="I77" s="22"/>
@@ -32981,16 +33136,16 @@
       <c r="Z77" s="22"/>
     </row>
     <row r="78" spans="1:26">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F78" s="58"/>
+        <v>161</v>
+      </c>
+      <c r="F78" s="57"/>
       <c r="G78" s="22"/>
       <c r="H78" s="22"/>
       <c r="I78" s="22"/>
@@ -33013,16 +33168,16 @@
       <c r="Z78" s="22"/>
     </row>
     <row r="79" spans="1:26">
-      <c r="A79" s="58"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F79" s="58"/>
+        <v>162</v>
+      </c>
+      <c r="F79" s="57"/>
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22"/>
@@ -33045,16 +33200,16 @@
       <c r="Z79" s="22"/>
     </row>
     <row r="80" spans="1:26">
-      <c r="A80" s="58"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F80" s="58"/>
+        <v>163</v>
+      </c>
+      <c r="F80" s="57"/>
       <c r="G80" s="22"/>
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
@@ -33076,17 +33231,17 @@
       <c r="Y80" s="22"/>
       <c r="Z80" s="22"/>
     </row>
-    <row r="81" spans="1:26" ht="24">
-      <c r="A81" s="58"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="58"/>
+    <row r="81" spans="1:26">
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
       <c r="D81" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F81" s="58"/>
+        <v>164</v>
+      </c>
+      <c r="F81" s="57"/>
       <c r="G81" s="22"/>
       <c r="H81" s="22"/>
       <c r="I81" s="22"/>
@@ -33108,17 +33263,17 @@
       <c r="Y81" s="22"/>
       <c r="Z81" s="22"/>
     </row>
-    <row r="82" spans="1:26">
-      <c r="A82" s="58"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="58"/>
+    <row r="82" spans="1:26" ht="24">
+      <c r="A82" s="57"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F82" s="58"/>
+        <v>165</v>
+      </c>
+      <c r="F82" s="57"/>
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22"/>
@@ -33140,17 +33295,17 @@
       <c r="Y82" s="22"/>
       <c r="Z82" s="22"/>
     </row>
-    <row r="83" spans="1:26" ht="24">
-      <c r="A83" s="59"/>
-      <c r="B83" s="59"/>
-      <c r="C83" s="59"/>
+    <row r="83" spans="1:26">
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
       <c r="D83" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F83" s="59"/>
+        <v>166</v>
+      </c>
+      <c r="F83" s="57"/>
       <c r="G83" s="22"/>
       <c r="H83" s="22"/>
       <c r="I83" s="22"/>
@@ -33172,21 +33327,17 @@
       <c r="Y83" s="22"/>
       <c r="Z83" s="22"/>
     </row>
-    <row r="84" spans="1:26" ht="36">
-      <c r="A84" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="84" spans="1:26" ht="24">
+      <c r="A84" s="55"/>
+      <c r="B84" s="55"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="5">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F84" s="55"/>
       <c r="G84" s="22"/>
       <c r="H84" s="22"/>
       <c r="I84" s="22"/>
@@ -33210,17 +33361,17 @@
     </row>
     <row r="85" spans="1:26" ht="36">
       <c r="A85" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="22"/>
@@ -33244,19 +33395,19 @@
       <c r="Y85" s="22"/>
       <c r="Z85" s="22"/>
     </row>
-    <row r="86" spans="1:26" ht="24">
+    <row r="86" spans="1:26" ht="36">
       <c r="A86" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="5"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G86" s="22"/>
@@ -33280,23 +33431,19 @@
       <c r="Y86" s="22"/>
       <c r="Z86" s="22"/>
     </row>
-    <row r="87" spans="1:26">
-      <c r="A87" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="B87" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F87" s="61" t="s">
+    <row r="87" spans="1:26" ht="24">
+      <c r="A87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G87" s="22"/>
@@ -33321,16 +33468,24 @@
       <c r="Z87" s="22"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="58"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
+      <c r="A88" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="54" t="s">
+        <v>125</v>
+      </c>
       <c r="D88" s="5" t="s">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F88" s="58"/>
+        <v>176</v>
+      </c>
+      <c r="F88" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G88" s="22"/>
       <c r="H88" s="22"/>
       <c r="I88" s="22"/>
@@ -33353,16 +33508,16 @@
       <c r="Z88" s="22"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="59"/>
-      <c r="B89" s="59"/>
-      <c r="C89" s="59"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
       <c r="D89" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F89" s="59"/>
+        <v>178</v>
+      </c>
+      <c r="F89" s="57"/>
       <c r="G89" s="22"/>
       <c r="H89" s="22"/>
       <c r="I89" s="22"/>
@@ -33385,24 +33540,16 @@
       <c r="Z89" s="22"/>
     </row>
     <row r="90" spans="1:26">
-      <c r="A90" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="C90" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="5">
-        <v>0</v>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F90" s="61" t="s">
-        <v>8</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="F90" s="55"/>
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22"/>
@@ -33425,16 +33572,24 @@
       <c r="Z90" s="22"/>
     </row>
     <row r="91" spans="1:26">
-      <c r="A91" s="58"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" s="54" t="s">
+        <v>11</v>
+      </c>
       <c r="D91" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" s="58"/>
+        <v>51</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22"/>
@@ -33457,16 +33612,16 @@
       <c r="Z91" s="22"/>
     </row>
     <row r="92" spans="1:26">
-      <c r="A92" s="59"/>
-      <c r="B92" s="59"/>
-      <c r="C92" s="59"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
       <c r="D92" s="5">
-        <v>88</v>
+        <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F92" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="F92" s="57"/>
       <c r="G92" s="22"/>
       <c r="H92" s="22"/>
       <c r="I92" s="22"/>
@@ -33489,22 +33644,16 @@
       <c r="Z92" s="22"/>
     </row>
     <row r="93" spans="1:26">
-      <c r="A93" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="B93" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C93" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="61" t="s">
-        <v>8</v>
-      </c>
+      <c r="A93" s="55"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="5">
+        <v>88</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F93" s="55"/>
       <c r="G93" s="22"/>
       <c r="H93" s="22"/>
       <c r="I93" s="22"/>
@@ -33527,14 +33676,22 @@
       <c r="Z93" s="22"/>
     </row>
     <row r="94" spans="1:26">
-      <c r="A94" s="59"/>
-      <c r="B94" s="59"/>
-      <c r="C94" s="59"/>
+      <c r="A94" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="54" t="s">
+        <v>125</v>
+      </c>
       <c r="D94" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" s="4"/>
-      <c r="F94" s="59"/>
+      <c r="F94" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G94" s="22"/>
       <c r="H94" s="22"/>
       <c r="I94" s="22"/>
@@ -33557,24 +33714,14 @@
       <c r="Z94" s="22"/>
     </row>
     <row r="95" spans="1:26">
-      <c r="A95" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="B95" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C95" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="5">
-        <v>1</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F95" s="61" t="s">
-        <v>8</v>
-      </c>
+      <c r="A95" s="55"/>
+      <c r="B95" s="55"/>
+      <c r="C95" s="55"/>
+      <c r="D95" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="55"/>
       <c r="G95" s="22"/>
       <c r="H95" s="22"/>
       <c r="I95" s="22"/>
@@ -33597,16 +33744,24 @@
       <c r="Z95" s="22"/>
     </row>
     <row r="96" spans="1:26">
-      <c r="A96" s="59"/>
-      <c r="B96" s="59"/>
-      <c r="C96" s="59"/>
+      <c r="A96" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>11</v>
+      </c>
       <c r="D96" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F96" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="F96" s="54" t="s">
+        <v>8</v>
+      </c>
       <c r="G96" s="22"/>
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
@@ -33628,21 +33783,17 @@
       <c r="Y96" s="22"/>
       <c r="Z96" s="22"/>
     </row>
-    <row r="97" spans="1:26" ht="24">
-      <c r="A97" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="13" t="s">
-        <v>8</v>
-      </c>
+    <row r="97" spans="1:26">
+      <c r="A97" s="55"/>
+      <c r="B97" s="55"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="5">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97" s="55"/>
       <c r="G97" s="22"/>
       <c r="H97" s="22"/>
       <c r="I97" s="22"/>
@@ -33664,13 +33815,21 @@
       <c r="Y97" s="22"/>
       <c r="Z97" s="22"/>
     </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="22"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
+    <row r="98" spans="1:26" ht="24">
+      <c r="A98" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="G98" s="22"/>
       <c r="H98" s="22"/>
       <c r="I98" s="22"/>
@@ -33696,6 +33855,7 @@
       <c r="A99" s="22"/>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
@@ -33723,7 +33883,6 @@
       <c r="A100" s="22"/>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
@@ -33748,11 +33907,11 @@
       <c r="Z100" s="22"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="25"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="22"/>
       <c r="C101" s="22"/>
       <c r="D101" s="22"/>
-      <c r="E101" s="26"/>
+      <c r="E101" s="22"/>
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
@@ -33780,7 +33939,7 @@
       <c r="B102" s="22"/>
       <c r="C102" s="22"/>
       <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
+      <c r="E102" s="26"/>
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
@@ -58975,36 +59134,52 @@
       <c r="Y1001" s="22"/>
       <c r="Z1001" s="22"/>
     </row>
+    <row r="1002" spans="1:26">
+      <c r="A1002" s="25"/>
+      <c r="B1002" s="22"/>
+      <c r="C1002" s="22"/>
+      <c r="D1002" s="22"/>
+      <c r="E1002" s="22"/>
+      <c r="F1002" s="22"/>
+      <c r="G1002" s="22"/>
+      <c r="H1002" s="22"/>
+      <c r="I1002" s="22"/>
+      <c r="J1002" s="22"/>
+      <c r="K1002" s="22"/>
+      <c r="L1002" s="22"/>
+      <c r="M1002" s="22"/>
+      <c r="N1002" s="22"/>
+      <c r="O1002" s="22"/>
+      <c r="P1002" s="22"/>
+      <c r="Q1002" s="22"/>
+      <c r="R1002" s="22"/>
+      <c r="S1002" s="22"/>
+      <c r="T1002" s="22"/>
+      <c r="U1002" s="22"/>
+      <c r="V1002" s="22"/>
+      <c r="W1002" s="22"/>
+      <c r="X1002" s="22"/>
+      <c r="Y1002" s="22"/>
+      <c r="Z1002" s="22"/>
+    </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="F87:F89"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="A75:A83"/>
-    <mergeCell ref="B75:B83"/>
-    <mergeCell ref="C75:C83"/>
-    <mergeCell ref="F75:F83"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="C90:C92"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B43:B59"/>
+    <mergeCell ref="C43:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="A67:A68"/>
     <mergeCell ref="A5:A22"/>
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="C5:C22"/>
@@ -59013,22 +59188,34 @@
     <mergeCell ref="C23:C40"/>
     <mergeCell ref="F23:F40"/>
     <mergeCell ref="A23:A40"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="C87:C89"/>
-    <mergeCell ref="B87:B89"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B43:B59"/>
-    <mergeCell ref="C43:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="F91:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F88:F90"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="A76:A84"/>
+    <mergeCell ref="B76:B84"/>
+    <mergeCell ref="C76:C84"/>
+    <mergeCell ref="F76:F84"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -59042,7 +59229,7 @@
   </sheetPr>
   <dimension ref="A1:F1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F74" sqref="F74:F81"/>
     </sheetView>
   </sheetViews>
@@ -59148,13 +59335,13 @@
       <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="5">
@@ -59163,28 +59350,28 @@
       <c r="E7" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="61"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="5">
@@ -59193,100 +59380,100 @@
       <c r="E9" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="61"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="5">
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="5">
         <v>4</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="5">
         <v>6</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="5">
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="5">
         <v>8</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="5">
@@ -59295,90 +59482,90 @@
       <c r="E17" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="54" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="5">
         <v>3</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="5">
         <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="5">
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="5">
         <v>7</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="5">
@@ -59387,28 +59574,28 @@
       <c r="E24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="5">
         <v>2</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="59"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="58" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="5">
@@ -59420,124 +59607,124 @@
       <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="69"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="5">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="69"/>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="5">
         <v>2</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F28" s="58"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="69"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="5">
         <v>3</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F29" s="58"/>
+      <c r="F29" s="57"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="69"/>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="5">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="5">
         <v>5</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5">
         <v>6</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="5">
         <v>7</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="69"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="5">
         <v>8</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="5">
         <v>9</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="70"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="5">
         <v>22</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="55"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="53"/>
@@ -59552,13 +59739,13 @@
       <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="61" t="s">
+      <c r="A38" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="5">
@@ -59567,52 +59754,52 @@
       <c r="E38" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="5">
         <v>2</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="58"/>
+      <c r="F39" s="57"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="58"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="5">
         <v>3</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="58"/>
+      <c r="F40" s="57"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="5">
         <v>22</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="59"/>
+      <c r="F41" s="55"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="5">
@@ -59621,100 +59808,100 @@
       <c r="E42" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F42" s="61"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="5">
         <v>2</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="5">
         <v>4</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="5">
         <v>5</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F46" s="58"/>
+      <c r="F46" s="57"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="5">
         <v>6</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F47" s="58"/>
+      <c r="F47" s="57"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="5">
         <v>7</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="F48" s="58"/>
+      <c r="F48" s="57"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="59"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="5">
         <v>22</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="59"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="5">
@@ -59723,42 +59910,42 @@
       <c r="E50" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="68" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F51" s="67"/>
+      <c r="F51" s="69"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="59"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="5">
         <v>2</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F52" s="68"/>
+      <c r="F52" s="70"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="B53" s="61" t="s">
+      <c r="B53" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="5">
@@ -59767,124 +59954,124 @@
       <c r="E53" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F53" s="61"/>
+      <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="5">
         <v>2</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F54" s="58"/>
+      <c r="F54" s="57"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
       <c r="D55" s="5">
         <v>3</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="57"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="5">
         <v>4</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="57"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
       <c r="D57" s="5">
         <v>5</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="F57" s="58"/>
+      <c r="F57" s="57"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="5">
         <v>6</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F58" s="58"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
+      <c r="F58" s="57"/>
+    </row>
+    <row r="59" spans="1:6" ht="24">
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
       <c r="D59" s="5">
         <v>7</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F59" s="58"/>
+      <c r="F59" s="57"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
       <c r="D60" s="5">
         <v>8</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="57"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="5">
         <v>9</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="F61" s="58"/>
+      <c r="F61" s="57"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="5">
         <v>10</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F62" s="59"/>
+      <c r="F62" s="55"/>
     </row>
     <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="5">
@@ -59895,103 +60082,103 @@
       </c>
       <c r="F63" s="52"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="69"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
+    <row r="64" spans="1:6" ht="24">
+      <c r="A64" s="66"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="5">
         <v>1</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="F64" s="61"/>
+      <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="69"/>
-      <c r="B65" s="69"/>
-      <c r="C65" s="69"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F65" s="58"/>
+      <c r="F65" s="57"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="5">
         <v>3</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F66" s="58"/>
+      <c r="F66" s="57"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="69"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="5">
         <v>4</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="F67" s="58"/>
+      <c r="F67" s="57"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F68" s="58"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="69"/>
-      <c r="B69" s="69"/>
-      <c r="C69" s="69"/>
+      <c r="F68" s="57"/>
+    </row>
+    <row r="69" spans="1:6" ht="24">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="5">
         <v>6</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="57"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="69"/>
-      <c r="B70" s="69"/>
-      <c r="C70" s="69"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="5">
         <v>7</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="57"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="70"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="5">
         <v>22</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="F71" s="59"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" s="55"/>
+    </row>
+    <row r="72" spans="1:6" ht="24">
       <c r="A72" s="3" t="s">
         <v>272</v>
       </c>
@@ -60018,13 +60205,13 @@
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="C74" s="61" t="s">
+      <c r="C74" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="5">
@@ -60033,91 +60220,91 @@
       <c r="E74" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F74" s="61"/>
+      <c r="F74" s="54"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
       <c r="D75" s="5">
         <v>2</v>
       </c>
       <c r="E75" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F75" s="58"/>
+      <c r="F75" s="57"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
       <c r="D76" s="5">
         <v>3</v>
       </c>
       <c r="E76" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="57"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="58"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="5">
         <v>4</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F77" s="58"/>
+      <c r="F77" s="57"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="58"/>
-      <c r="B78" s="58"/>
-      <c r="C78" s="58"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
       <c r="D78" s="5">
         <v>5</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F78" s="58"/>
+      <c r="F78" s="57"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="58"/>
-      <c r="B79" s="58"/>
-      <c r="C79" s="58"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
       <c r="D79" s="5">
         <v>6</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F79" s="58"/>
+      <c r="F79" s="57"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="58"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="58"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
       <c r="D80" s="5">
         <v>7</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F80" s="58"/>
+      <c r="F80" s="57"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="59"/>
-      <c r="B81" s="59"/>
-      <c r="C81" s="59"/>
+      <c r="A81" s="55"/>
+      <c r="B81" s="55"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="5">
         <v>22</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F81" s="59"/>
+      <c r="F81" s="55"/>
     </row>
     <row r="82" spans="1:6" ht="24">
       <c r="A82" s="3" t="s">
@@ -60134,13 +60321,13 @@
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="64" t="s">
+      <c r="A83" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="B83" s="64" t="s">
+      <c r="B83" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D83" s="5">
@@ -60152,61 +60339,61 @@
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6" ht="24">
-      <c r="A84" s="69"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69"/>
+      <c r="A84" s="66"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="5">
         <v>1</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F84" s="61"/>
+      <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="36">
-      <c r="A85" s="69"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="5">
         <v>2</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="F85" s="58"/>
+      <c r="F85" s="57"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="69"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
+      <c r="A86" s="66"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
       <c r="D86" s="5">
         <v>3</v>
       </c>
       <c r="E86" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F86" s="58"/>
+      <c r="F86" s="57"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="70"/>
-      <c r="B87" s="70"/>
-      <c r="C87" s="70"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="5">
         <v>4</v>
       </c>
       <c r="E87" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="F87" s="59"/>
+      <c r="F87" s="55"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="64" t="s">
+      <c r="A88" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="B88" s="64" t="s">
+      <c r="B88" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="C88" s="64" t="s">
+      <c r="C88" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="5">
@@ -60218,61 +60405,61 @@
       <c r="F88" s="52"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="69"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69"/>
+      <c r="A89" s="66"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
       <c r="D89" s="5">
         <v>1</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F89" s="61"/>
+      <c r="F89" s="54"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="69"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
+      <c r="A90" s="66"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
       <c r="D90" s="5">
         <v>2</v>
       </c>
       <c r="E90" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F90" s="58"/>
+      <c r="F90" s="57"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="69"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
       <c r="D91" s="5">
         <v>3</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F91" s="58"/>
+      <c r="F91" s="57"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="70"/>
-      <c r="B92" s="70"/>
-      <c r="C92" s="70"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="5">
         <v>4</v>
       </c>
       <c r="E92" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F92" s="59"/>
+      <c r="F92" s="55"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="64" t="s">
+      <c r="A93" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="C93" s="64" t="s">
+      <c r="C93" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="5">
@@ -60284,64 +60471,64 @@
       <c r="F93" s="52"/>
     </row>
     <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="69"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
+      <c r="A94" s="66"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
       <c r="D94" s="5">
         <v>1</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F94" s="61"/>
+      <c r="F94" s="54"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="69"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="69"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
       <c r="D95" s="5">
         <v>2</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F95" s="58"/>
+      <c r="F95" s="57"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="69"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="69"/>
+      <c r="A96" s="66"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="5">
         <v>3</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F96" s="58"/>
+      <c r="F96" s="57"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="69"/>
-      <c r="B97" s="69"/>
-      <c r="C97" s="69"/>
+      <c r="A97" s="66"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
       <c r="D97" s="5">
         <v>4</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F97" s="58"/>
+      <c r="F97" s="57"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="70"/>
-      <c r="B98" s="70"/>
-      <c r="C98" s="70"/>
+      <c r="A98" s="67"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
       <c r="D98" s="5">
         <v>22</v>
       </c>
       <c r="E98" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="59"/>
+      <c r="F98" s="55"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="3" t="s">
@@ -60358,13 +60545,13 @@
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="61" t="s">
+      <c r="A100" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="B100" s="61" t="s">
+      <c r="B100" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="C100" s="61" t="s">
+      <c r="C100" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D100" s="5">
@@ -60373,64 +60560,64 @@
       <c r="E100" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F100" s="61"/>
+      <c r="F100" s="54"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="58"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
+      <c r="A101" s="57"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
       <c r="D101" s="5">
         <v>2</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F101" s="58"/>
+      <c r="F101" s="57"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="58"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="5">
         <v>3</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F102" s="58"/>
+      <c r="F102" s="57"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="58"/>
-      <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
+      <c r="A103" s="57"/>
+      <c r="B103" s="57"/>
+      <c r="C103" s="57"/>
       <c r="D103" s="5">
         <v>4</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F103" s="58"/>
+      <c r="F103" s="57"/>
     </row>
     <row r="104" spans="1:6" ht="24">
-      <c r="A104" s="59"/>
-      <c r="B104" s="59"/>
-      <c r="C104" s="59"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="55"/>
       <c r="D104" s="5">
         <v>5</v>
       </c>
       <c r="E104" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F104" s="59"/>
+      <c r="F104" s="55"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="61" t="s">
+      <c r="A105" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="C105" s="61" t="s">
+      <c r="C105" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="5">
@@ -60439,76 +60626,76 @@
       <c r="E105" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="F105" s="61"/>
+      <c r="F105" s="54"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="58"/>
-      <c r="B106" s="58"/>
-      <c r="C106" s="58"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
       <c r="D106" s="5">
         <v>2</v>
       </c>
       <c r="E106" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F106" s="58"/>
+      <c r="F106" s="57"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58"/>
+      <c r="A107" s="57"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="57"/>
       <c r="D107" s="5">
         <v>3</v>
       </c>
       <c r="E107" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F107" s="58"/>
+      <c r="F107" s="57"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="58"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="58"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
       <c r="D108" s="5">
         <v>4</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F108" s="58"/>
+      <c r="F108" s="57"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="58"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="58"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="57"/>
+      <c r="C109" s="57"/>
       <c r="D109" s="5">
         <v>5</v>
       </c>
       <c r="E109" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F109" s="58"/>
+      <c r="F109" s="57"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="59"/>
-      <c r="B110" s="59"/>
-      <c r="C110" s="59"/>
+      <c r="A110" s="55"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="55"/>
       <c r="D110" s="5">
         <v>22</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F110" s="59"/>
+      <c r="F110" s="55"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="B111" s="61" t="s">
+      <c r="B111" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="5">
@@ -60517,30 +60704,30 @@
       <c r="E111" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F111" s="61" t="s">
+      <c r="F111" s="54" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="59"/>
-      <c r="B112" s="59"/>
-      <c r="C112" s="59"/>
+      <c r="A112" s="55"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="55"/>
       <c r="D112" s="5">
         <v>2</v>
       </c>
       <c r="E112" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F112" s="59"/>
+      <c r="F112" s="55"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="61" t="s">
+      <c r="A113" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="B113" s="61" t="s">
+      <c r="B113" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="61" t="s">
+      <c r="C113" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="5">
@@ -60549,28 +60736,28 @@
       <c r="E113" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F113" s="61"/>
+      <c r="F113" s="54"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="59"/>
-      <c r="B114" s="59"/>
-      <c r="C114" s="59"/>
+      <c r="A114" s="55"/>
+      <c r="B114" s="55"/>
+      <c r="C114" s="55"/>
       <c r="D114" s="5">
         <v>2</v>
       </c>
       <c r="E114" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F114" s="59"/>
+      <c r="F114" s="55"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="61" t="s">
+      <c r="A115" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="B115" s="61" t="s">
+      <c r="B115" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="C115" s="61" t="s">
+      <c r="C115" s="54" t="s">
         <v>11</v>
       </c>
       <c r="D115" s="5">
@@ -60579,139 +60766,139 @@
       <c r="E115" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F115" s="61"/>
+      <c r="F115" s="54"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="58"/>
-      <c r="B116" s="58"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="57"/>
       <c r="D116" s="5">
         <v>2</v>
       </c>
       <c r="E116" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F116" s="58"/>
+      <c r="F116" s="57"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="58"/>
-      <c r="B117" s="58"/>
-      <c r="C117" s="58"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="57"/>
       <c r="D117" s="5">
         <v>3</v>
       </c>
       <c r="E117" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F117" s="58"/>
+      <c r="F117" s="57"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="58"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="58"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="57"/>
+      <c r="C118" s="57"/>
       <c r="D118" s="5">
         <v>4</v>
       </c>
       <c r="E118" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F118" s="58"/>
+      <c r="F118" s="57"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="58"/>
-      <c r="B119" s="58"/>
-      <c r="C119" s="58"/>
+      <c r="A119" s="57"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="57"/>
       <c r="D119" s="5">
         <v>5</v>
       </c>
       <c r="E119" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F119" s="58"/>
+      <c r="F119" s="57"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
+      <c r="A120" s="57"/>
+      <c r="B120" s="57"/>
+      <c r="C120" s="57"/>
       <c r="D120" s="5">
         <v>6</v>
       </c>
       <c r="E120" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F120" s="58"/>
+      <c r="F120" s="57"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="58"/>
-      <c r="B121" s="58"/>
-      <c r="C121" s="58"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="57"/>
       <c r="D121" s="5">
         <v>7</v>
       </c>
       <c r="E121" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F121" s="58"/>
+      <c r="F121" s="57"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="58"/>
-      <c r="B122" s="58"/>
-      <c r="C122" s="58"/>
+      <c r="A122" s="57"/>
+      <c r="B122" s="57"/>
+      <c r="C122" s="57"/>
       <c r="D122" s="5">
         <v>8</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F122" s="58"/>
+      <c r="F122" s="57"/>
     </row>
     <row r="123" spans="1:6" ht="24">
-      <c r="A123" s="58"/>
-      <c r="B123" s="58"/>
-      <c r="C123" s="58"/>
+      <c r="A123" s="57"/>
+      <c r="B123" s="57"/>
+      <c r="C123" s="57"/>
       <c r="D123" s="5">
         <v>9</v>
       </c>
       <c r="E123" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F123" s="58"/>
+      <c r="F123" s="57"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="58"/>
-      <c r="B124" s="58"/>
-      <c r="C124" s="58"/>
+      <c r="A124" s="57"/>
+      <c r="B124" s="57"/>
+      <c r="C124" s="57"/>
       <c r="D124" s="5">
         <v>10</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="F124" s="58"/>
+      <c r="F124" s="57"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="58"/>
-      <c r="B125" s="58"/>
-      <c r="C125" s="58"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="57"/>
+      <c r="C125" s="57"/>
       <c r="D125" s="5">
         <v>11</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F125" s="58"/>
+      <c r="F125" s="57"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="59"/>
-      <c r="B126" s="59"/>
-      <c r="C126" s="59"/>
+      <c r="A126" s="55"/>
+      <c r="B126" s="55"/>
+      <c r="C126" s="55"/>
       <c r="D126" s="5">
         <v>22</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F126" s="59"/>
+      <c r="F126" s="55"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="27"/>
@@ -67763,67 +67950,6 @@
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="A26:A36"/>
-    <mergeCell ref="C26:C36"/>
-    <mergeCell ref="B26:B36"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B17:B23"/>
-    <mergeCell ref="C17:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B16"/>
-    <mergeCell ref="C9:C16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="B115:B126"/>
-    <mergeCell ref="C115:C126"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="A115:A126"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="C105:C110"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="F94:F98"/>
-    <mergeCell ref="A88:A92"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="C88:C92"/>
-    <mergeCell ref="A93:A98"/>
-    <mergeCell ref="B93:B98"/>
-    <mergeCell ref="C93:C98"/>
-    <mergeCell ref="A74:A81"/>
-    <mergeCell ref="B74:B81"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="A83:A87"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="C83:C87"/>
     <mergeCell ref="F64:F71"/>
     <mergeCell ref="F74:F81"/>
     <mergeCell ref="F115:F126"/>
@@ -67839,6 +67965,67 @@
     <mergeCell ref="F105:F110"/>
     <mergeCell ref="F111:F112"/>
     <mergeCell ref="F113:F114"/>
+    <mergeCell ref="A74:A81"/>
+    <mergeCell ref="B74:B81"/>
+    <mergeCell ref="C74:C81"/>
+    <mergeCell ref="A83:A87"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="F94:F98"/>
+    <mergeCell ref="A88:A92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="C88:C92"/>
+    <mergeCell ref="A93:A98"/>
+    <mergeCell ref="B93:B98"/>
+    <mergeCell ref="C93:C98"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="C105:C110"/>
+    <mergeCell ref="B115:B126"/>
+    <mergeCell ref="C115:C126"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="A115:A126"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C9:C16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="B17:B23"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A53:A62"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="A26:A36"/>
+    <mergeCell ref="C26:C36"/>
+    <mergeCell ref="B26:B36"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A42:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -67947,13 +68134,13 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="74" t="s">
         <v>339</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="31">
@@ -67962,247 +68149,247 @@
       <c r="E6" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="67"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="67"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="31">
         <v>3</v>
       </c>
       <c r="E8" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="57"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="67"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="69"/>
       <c r="D9" s="31">
         <v>4</v>
       </c>
       <c r="E9" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F9" s="58"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="67"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="31">
         <v>5</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="67"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="31">
         <v>6</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="67"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="31">
         <v>7</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="67"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="31">
         <v>8</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="67"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="31">
         <v>9</v>
       </c>
       <c r="E14" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="58"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="67"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="31">
         <v>10</v>
       </c>
       <c r="E15" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="58"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="67"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="31">
         <v>11</v>
       </c>
       <c r="E16" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="58"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="67"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="31">
         <v>12</v>
       </c>
       <c r="E17" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F17" s="58"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="31">
         <v>13</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="F18" s="58"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="67"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="31">
         <v>14</v>
       </c>
       <c r="E19" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F19" s="58"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="67"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="31">
         <v>15</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F20" s="58"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="67"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="31">
         <v>16</v>
       </c>
       <c r="E21" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="F21" s="58"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="67"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="31">
         <v>17</v>
       </c>
       <c r="E22" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F22" s="58"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="67"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="69"/>
       <c r="D23" s="31">
         <v>18</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="F23" s="58"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="67"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="31">
         <v>19</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="58"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="67"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="31">
         <v>20</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="57"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="68"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="31">
         <v>22</v>
       </c>
       <c r="E26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="59"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="34" t="s">
@@ -68233,13 +68420,13 @@
       <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="35">
@@ -68248,138 +68435,138 @@
       <c r="E29" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="54" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="58"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="67"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="69"/>
       <c r="D30" s="31">
         <v>2</v>
       </c>
       <c r="E30" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F30" s="58"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="67"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="31">
         <v>3</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="57"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="58"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="67"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="31">
         <v>4</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="57"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="58"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="67"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="31">
         <v>5</v>
       </c>
       <c r="E33" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F33" s="58"/>
+      <c r="F33" s="57"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="67"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="31">
         <v>6</v>
       </c>
       <c r="E34" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F34" s="58"/>
+      <c r="F34" s="57"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="67"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="69"/>
       <c r="D35" s="31">
         <v>7</v>
       </c>
       <c r="E35" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F35" s="58"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="67"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="69"/>
       <c r="D36" s="31">
         <v>8</v>
       </c>
       <c r="E36" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F36" s="58"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="67"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="69"/>
       <c r="D37" s="31">
         <v>9</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F37" s="58"/>
+      <c r="F37" s="57"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="67"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="69"/>
       <c r="D38" s="31">
         <v>10</v>
       </c>
       <c r="E38" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F38" s="58"/>
+      <c r="F38" s="57"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="68"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="70"/>
       <c r="D39" s="31">
         <v>22</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F39" s="59"/>
+      <c r="F39" s="55"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="35">
@@ -68388,79 +68575,79 @@
       <c r="E40" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="54"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="67"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="69"/>
       <c r="D41" s="31">
         <v>2</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="F41" s="58"/>
+      <c r="F41" s="57"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="67"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="69"/>
       <c r="D42" s="31">
         <v>3</v>
       </c>
       <c r="E42" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="F42" s="58"/>
+      <c r="F42" s="57"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="67"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="69"/>
       <c r="D43" s="31">
         <v>4</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="F43" s="58"/>
+      <c r="F43" s="57"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="67"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="31">
         <v>5</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="58"/>
+      <c r="F44" s="57"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="67"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="31">
         <v>6</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="F45" s="58"/>
+      <c r="F45" s="57"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="70"/>
       <c r="D46" s="31">
         <v>22</v>
       </c>
       <c r="E46" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="59"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="37" t="s">
@@ -68479,91 +68666,91 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="72" t="s">
         <v>390</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="56" t="s">
         <v>391</v>
       </c>
-      <c r="C48" s="73" t="s">
+      <c r="C48" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="36"/>
-      <c r="F48" s="71"/>
+      <c r="F48" s="73"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="58"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="68"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="70"/>
       <c r="D49" s="39">
         <v>88</v>
       </c>
       <c r="E49" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="F49" s="59"/>
+      <c r="F49" s="55"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="72" t="s">
         <v>393</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="56" t="s">
         <v>394</v>
       </c>
-      <c r="C50" s="73" t="s">
+      <c r="C50" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="36"/>
-      <c r="F50" s="71"/>
+      <c r="F50" s="73"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="70"/>
       <c r="D51" s="31">
         <v>88</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>395</v>
       </c>
-      <c r="F51" s="59"/>
+      <c r="F51" s="55"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="56" t="s">
         <v>396</v>
       </c>
-      <c r="B52" s="60" t="s">
+      <c r="B52" s="56" t="s">
         <v>397</v>
       </c>
-      <c r="C52" s="73" t="s">
+      <c r="C52" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="14"/>
       <c r="E52" s="50"/>
-      <c r="F52" s="71"/>
+      <c r="F52" s="73"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="68"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="70"/>
       <c r="D53" s="5">
         <v>88</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="F53" s="59"/>
+      <c r="F53" s="55"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="C54" s="73" t="s">
+      <c r="C54" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="5">
@@ -68572,166 +68759,166 @@
       <c r="E54" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F54" s="61" t="s">
+      <c r="F54" s="54" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="67"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="69"/>
       <c r="D55" s="5">
         <v>2</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="F55" s="58"/>
+      <c r="F55" s="57"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="69"/>
       <c r="D56" s="5">
         <v>3</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F56" s="58"/>
+      <c r="F56" s="57"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="67"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="69"/>
       <c r="D57" s="5">
         <v>4</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="F57" s="58"/>
+      <c r="F57" s="57"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="67"/>
+      <c r="A58" s="57"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="69"/>
       <c r="D58" s="5">
         <v>5</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="F58" s="58"/>
+      <c r="F58" s="57"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="67"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="69"/>
       <c r="D59" s="5">
         <v>6</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="F59" s="58"/>
+      <c r="F59" s="57"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="67"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="69"/>
       <c r="D60" s="5">
         <v>7</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F60" s="58"/>
+      <c r="F60" s="57"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="67"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="69"/>
       <c r="D61" s="5">
         <v>8</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="F61" s="58"/>
+      <c r="F61" s="57"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="69"/>
       <c r="D62" s="5">
         <v>9</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="F62" s="58"/>
+      <c r="F62" s="57"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="67"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="69"/>
       <c r="D63" s="5">
         <v>10</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="F63" s="58"/>
+      <c r="F63" s="57"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="68"/>
+      <c r="A64" s="55"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="70"/>
       <c r="D64" s="5">
         <v>22</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F64" s="59"/>
+      <c r="F64" s="55"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="C65" s="73" t="s">
+      <c r="C65" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="71" t="s">
+      <c r="F65" s="73" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="68"/>
+      <c r="A66" s="55"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="70"/>
       <c r="D66" s="5">
         <v>88</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="F66" s="59"/>
+      <c r="F66" s="55"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="60" t="s">
+      <c r="A67" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="56" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="73" t="s">
+      <c r="C67" s="71" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="35">
@@ -68740,129 +68927,129 @@
       <c r="E67" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="F67" s="61" t="s">
+      <c r="F67" s="54" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="67"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="69"/>
       <c r="D68" s="31">
         <v>2</v>
       </c>
       <c r="E68" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="F68" s="58"/>
+      <c r="F68" s="57"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="67"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="31">
         <v>3</v>
       </c>
       <c r="E69" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="F69" s="58"/>
+      <c r="F69" s="57"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="67"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="69"/>
       <c r="D70" s="31">
         <v>4</v>
       </c>
       <c r="E70" s="31" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="58"/>
+      <c r="F70" s="57"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="67"/>
+      <c r="A71" s="57"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="69"/>
       <c r="D71" s="31">
         <v>5</v>
       </c>
       <c r="E71" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="F71" s="58"/>
+      <c r="F71" s="57"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="67"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="69"/>
       <c r="D72" s="31">
         <v>6</v>
       </c>
       <c r="E72" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="F72" s="58"/>
+      <c r="F72" s="57"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="58"/>
-      <c r="B73" s="58"/>
-      <c r="C73" s="67"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="69"/>
       <c r="D73" s="31">
         <v>7</v>
       </c>
       <c r="E73" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="F73" s="58"/>
+      <c r="F73" s="57"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="67"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="31">
         <v>8</v>
       </c>
       <c r="E74" s="31" t="s">
         <v>375</v>
       </c>
-      <c r="F74" s="58"/>
+      <c r="F74" s="57"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="67"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="69"/>
       <c r="D75" s="31">
         <v>9</v>
       </c>
       <c r="E75" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="F75" s="58"/>
+      <c r="F75" s="57"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="58"/>
-      <c r="B76" s="58"/>
-      <c r="C76" s="67"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="69"/>
       <c r="D76" s="31">
         <v>10</v>
       </c>
       <c r="E76" s="31" t="s">
         <v>377</v>
       </c>
-      <c r="F76" s="58"/>
+      <c r="F76" s="57"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="59"/>
-      <c r="B77" s="59"/>
-      <c r="C77" s="68"/>
+      <c r="A77" s="55"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="70"/>
       <c r="D77" s="31">
         <v>22</v>
       </c>
       <c r="E77" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="F77" s="59"/>
+      <c r="F77" s="55"/>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="19"/>
@@ -76282,21 +76469,11 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A54:A64"/>
-    <mergeCell ref="B54:B64"/>
-    <mergeCell ref="C54:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="F40:F46"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F64"/>
     <mergeCell ref="F65:F66"/>
     <mergeCell ref="F67:F77"/>
     <mergeCell ref="A6:A26"/>
@@ -76313,11 +76490,21 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="F40:F46"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F64"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A54:A64"/>
+    <mergeCell ref="B54:B64"/>
+    <mergeCell ref="C54:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
